--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="21">
   <si>
     <t>原料长度</t>
   </si>
@@ -70,19 +70,13 @@
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[4798, 6134]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
   </si>
   <si>
-    <t>[4798, 6134]</t>
-  </si>
-  <si>
-    <t>[3730]</t>
-  </si>
-  <si>
-    <t>[464, 6134]</t>
+    <t>[4418]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F425"/>
+  <dimension ref="A1:F424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,7 +679,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12000</v>
@@ -705,7 +699,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>12000</v>
@@ -725,7 +719,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -745,7 +739,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>12000</v>
@@ -765,7 +759,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -785,7 +779,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -805,7 +799,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -825,7 +819,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>12000</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>12000</v>
@@ -865,7 +859,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12000</v>
@@ -885,7 +879,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>12000</v>
@@ -985,7 +979,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -1005,7 +999,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>12000</v>
@@ -1025,7 +1019,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>12000</v>
@@ -1045,7 +1039,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -1065,7 +1059,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>12000</v>
@@ -1085,7 +1079,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>12000</v>
@@ -1105,7 +1099,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>12000</v>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>12000</v>
@@ -1145,7 +1139,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>12000</v>
@@ -1165,7 +1159,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>12000</v>
@@ -1185,7 +1179,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>12000</v>
@@ -1205,7 +1199,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>12000</v>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>12000</v>
@@ -1245,7 +1239,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>12000</v>
@@ -1265,7 +1259,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>12000</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>12000</v>
@@ -1305,7 +1299,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>12000</v>
@@ -1325,7 +1319,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>12000</v>
@@ -1345,7 +1339,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>12000</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>12000</v>
@@ -1405,7 +1399,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>12000</v>
@@ -1425,7 +1419,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>12000</v>
@@ -1445,7 +1439,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>12000</v>
@@ -1465,7 +1459,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>12000</v>
@@ -1485,7 +1479,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>12000</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>12000</v>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>12000</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>12000</v>
@@ -1565,7 +1559,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>12000</v>
@@ -1585,7 +1579,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>12000</v>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>12000</v>
@@ -1625,7 +1619,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>12000</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>12000</v>
@@ -1665,7 +1659,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>12000</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>12000</v>
@@ -1705,7 +1699,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>12000</v>
@@ -1725,7 +1719,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>12000</v>
@@ -1745,7 +1739,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>12000</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>12000</v>
@@ -1785,7 +1779,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>12000</v>
@@ -1805,7 +1799,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>12000</v>
@@ -1825,7 +1819,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>12000</v>
@@ -1845,7 +1839,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>12000</v>
@@ -1865,7 +1859,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>12000</v>
@@ -1885,7 +1879,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>12000</v>
@@ -1905,7 +1899,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>12000</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>12000</v>
@@ -1945,7 +1939,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>12000</v>
@@ -2328,19 +2322,19 @@
         <v>96</v>
       </c>
       <c r="B95">
+        <v>12000</v>
+      </c>
+      <c r="C95">
+        <v>5330</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>4584</v>
+      </c>
+      <c r="F95">
         <v>746</v>
-      </c>
-      <c r="C95">
-        <v>210</v>
-      </c>
-      <c r="D95" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2351,13 +2345,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2371,13 +2365,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2391,16 +2385,16 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F98">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2411,13 +2405,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2431,16 +2425,16 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2451,13 +2445,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2471,13 +2465,13 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2491,16 +2485,16 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F103">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2511,13 +2505,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E104">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2531,16 +2525,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2551,13 +2545,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2571,13 +2565,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,33 +2585,33 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F108">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2625,19 +2619,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2645,39 +2639,39 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F111">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2685,39 +2679,39 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2725,19 +2719,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2745,39 +2739,39 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E116">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F116">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2791,16 +2785,16 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2811,13 +2805,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2831,13 +2825,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2851,16 +2845,16 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F121">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2871,13 +2865,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2891,13 +2885,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2911,16 +2905,16 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F124">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2931,13 +2925,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2951,16 +2945,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2971,13 +2965,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2991,13 +2985,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E128">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3011,16 +3005,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F129">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3031,13 +3025,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E130">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3051,16 +3045,16 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E131">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3071,13 +3065,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3091,13 +3085,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3111,16 +3105,16 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F134">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3131,13 +3125,13 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3145,19 +3139,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3165,39 +3159,39 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F137">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3205,22 +3199,22 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3231,13 +3225,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E140">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3251,13 +3245,13 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E141">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3271,16 +3265,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F142">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3291,13 +3285,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3311,16 +3305,16 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3331,13 +3325,13 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3351,13 +3345,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3371,16 +3365,16 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F147">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3391,13 +3385,13 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3411,13 +3405,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3431,16 +3425,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F150">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3451,13 +3445,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3471,16 +3465,16 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3491,13 +3485,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E153">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3511,13 +3505,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3531,16 +3525,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F155">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3551,13 +3545,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E156">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3571,16 +3565,16 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3591,13 +3585,13 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,19 +3599,19 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3625,39 +3619,39 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F160">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3665,19 +3659,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3685,39 +3679,39 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F163">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E164">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3725,39 +3719,39 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E166">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,19 +3759,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3785,39 +3779,39 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F168">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3825,39 +3819,39 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E170">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,19 +3859,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3885,39 +3879,39 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F173">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3925,19 +3919,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3945,39 +3939,39 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F176">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3985,39 +3979,39 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,19 +4019,19 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4045,39 +4039,39 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F181">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4085,39 +4079,39 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E183">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4125,19 +4119,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4145,39 +4139,39 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F186">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4185,19 +4179,19 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4205,39 +4199,39 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F189">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4245,39 +4239,39 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4285,19 +4279,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E193">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4305,39 +4299,39 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F194">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E195">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4345,39 +4339,39 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196">
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D196" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E196">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4385,19 +4379,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4405,39 +4399,39 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F199">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4445,19 +4439,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E201">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4465,39 +4459,39 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F202">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4505,39 +4499,39 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4551,13 +4545,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4571,16 +4565,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E207">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F207">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4591,13 +4585,13 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E208">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4611,16 +4605,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E209">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4631,13 +4625,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4651,13 +4645,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4671,16 +4665,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F212">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4691,13 +4685,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4711,13 +4705,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4731,16 +4725,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F215">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4751,13 +4745,13 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4771,16 +4765,16 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4791,13 +4785,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4811,13 +4805,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E219">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4831,16 +4825,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D220" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E220">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F220">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4851,13 +4845,13 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E221">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4871,16 +4865,16 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E222">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4891,13 +4885,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4911,13 +4905,13 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4931,16 +4925,16 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F225">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4951,13 +4945,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4965,19 +4959,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4985,39 +4979,39 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F228">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5025,39 +5019,39 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,19 +5059,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E232">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5085,39 +5079,39 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F233">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5125,22 +5119,22 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D235" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5151,13 +5145,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5171,13 +5165,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5191,16 +5185,16 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F238">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5211,13 +5205,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5231,13 +5225,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5251,16 +5245,16 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F241">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5271,13 +5265,13 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5291,16 +5285,16 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5311,13 +5305,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E244">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5331,13 +5325,13 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5351,16 +5345,16 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E246">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F246">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5371,13 +5365,13 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E247">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5391,16 +5385,16 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D248" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5411,13 +5405,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5431,13 +5425,13 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5451,33 +5445,33 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F251">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5485,19 +5479,19 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5505,39 +5499,39 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F254">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E255">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5545,39 +5539,39 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D257" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E257">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,19 +5579,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5605,39 +5599,39 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E259">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F259">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5645,39 +5639,39 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D261" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D262" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,19 +5679,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5705,39 +5699,39 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F264">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E265">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5745,19 +5739,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5765,39 +5759,39 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F267">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E268">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5805,39 +5799,39 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E269">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,19 +5839,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E271">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5865,39 +5859,39 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D272" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E272">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F272">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D273" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E273">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5905,39 +5899,39 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D274" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E274">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,19 +5939,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E276">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5965,39 +5959,39 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D277" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F277">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D278" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6005,19 +5999,19 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6025,39 +6019,39 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E280">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F280">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D281" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E281">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6065,39 +6059,39 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D282" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E283">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,19 +6099,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D284" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E284">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6125,39 +6119,39 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D285" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E285">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F285">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D286" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E286">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6165,39 +6159,39 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D287" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D288" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E288">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,19 +6199,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6225,39 +6219,39 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F290">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D291" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E291">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6265,19 +6259,19 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E292">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6285,39 +6279,39 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F293">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E294">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6325,39 +6319,39 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D295" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E295">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D296" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E296">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,19 +6359,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D297" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E297">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6385,39 +6379,39 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D298" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F298">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D299" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E299">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6425,39 +6419,39 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D300" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E300">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,19 +6459,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E302">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6485,39 +6479,39 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D303" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F303">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E304">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6525,19 +6519,19 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E305">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6545,39 +6539,39 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E306">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F306">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D307" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E307">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6585,39 +6579,39 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D308" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E308">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E309">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,19 +6619,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E310">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6645,39 +6639,39 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D311" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E311">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F311">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D312" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E312">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6685,39 +6679,39 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D313" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E313">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D314" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E314">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,19 +6719,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D315" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6745,39 +6739,39 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D316" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F316">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B317">
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D317" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E317">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6785,19 +6779,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D318" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E318">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6805,39 +6799,39 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E319">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F319">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D320" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E320">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6845,39 +6839,39 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D321" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E321">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E322">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,19 +6879,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D323" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E323">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6905,39 +6899,39 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D324" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E324">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F324">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D325" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E325">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6945,39 +6939,39 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E326">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D327" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E327">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6985,19 +6979,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D328" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E328">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7005,39 +6999,39 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B329">
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D329" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F329">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E330">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7045,19 +7039,19 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E331">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7065,39 +7059,39 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E332">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F332">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E333">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7105,39 +7099,39 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D334" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E334">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E335">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,19 +7139,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E336">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7165,39 +7159,39 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D337" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E337">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F337">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D338" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E338">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7205,39 +7199,39 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D339" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E339">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E340">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7239,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E341">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,39 +7259,39 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D342" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F342">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D343" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E343">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7305,19 +7299,19 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E344">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7325,39 +7319,39 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E345">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F345">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E346">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7365,39 +7359,39 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E347">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D348" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E348">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,19 +7399,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D349" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E349">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7425,39 +7419,39 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D350" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E350">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F350">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E351">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7465,39 +7459,39 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D352" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E352">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D353" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E353">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7499,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E354">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,39 +7519,39 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D355" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F355">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E356">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7565,19 +7559,19 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E357">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7585,39 +7579,39 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E358">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F358">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E359">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7625,39 +7619,39 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E360">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F360">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E361">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,19 +7659,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E362">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7685,39 +7679,39 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D363" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E363">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F363">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E364">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7725,39 +7719,39 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D365" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E365">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D366" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E366">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7759,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D367" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E367">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,39 +7779,39 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D368" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F368">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D369" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E369">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7825,19 +7819,19 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D370" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E370">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7845,39 +7839,39 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D371" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E371">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F371">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E372">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7885,39 +7879,39 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D373" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E373">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D374" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E374">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,19 +7919,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D375" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E375">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7945,39 +7939,39 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D376" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E376">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F376">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E377">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7985,39 +7979,39 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D378" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E378">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B379">
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D379" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E379">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8025,19 +8019,19 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B380">
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D380" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E380">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8045,39 +8039,39 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B381">
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D381" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F381">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B382">
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D382" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E382">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8085,19 +8079,19 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B383">
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D383" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E383">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8105,39 +8099,39 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B384">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C384">
-        <v>5330</v>
+        <v>2980</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E384">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F384">
-        <v>746</v>
+        <v>576</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B385">
         <v>11200</v>
       </c>
       <c r="C385">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D385" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E385">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8145,99 +8139,99 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B386">
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D386" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E386">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D387" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E387">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D388" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F388">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D389" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E389">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F389">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D390" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E390">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8245,99 +8239,99 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D391" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E391">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F391">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D392" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E392">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D393" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F393">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D394" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E394">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F394">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D395" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E395">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8345,99 +8339,99 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D396" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E396">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F396">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E397">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B398">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C398">
-        <v>268</v>
+        <v>1716</v>
       </c>
       <c r="D398" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="F398">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B399">
         <v>9400</v>
       </c>
       <c r="C399">
-        <v>3266</v>
+        <v>4982</v>
       </c>
       <c r="D399" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E399">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F399">
-        <v>862</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B400">
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D400" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E400">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8445,19 +8439,19 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B401">
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D401" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E401">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F401">
         <v>398</v>
@@ -8465,19 +8459,19 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B402">
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D402" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E402">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8485,19 +8479,19 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B403">
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D403" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E403">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F403">
         <v>398</v>
@@ -8505,19 +8499,19 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B404">
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E404">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8525,19 +8519,19 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B405">
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D405" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E405">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F405">
         <v>398</v>
@@ -8545,19 +8539,19 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B406">
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E406">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8565,19 +8559,19 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B407">
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D407" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E407">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F407">
         <v>398</v>
@@ -8585,19 +8579,19 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D408" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E408">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8605,19 +8599,19 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B409">
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D409" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E409">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F409">
         <v>398</v>
@@ -8625,19 +8619,19 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B410">
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E410">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8645,19 +8639,19 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B411">
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D411" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E411">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F411">
         <v>398</v>
@@ -8665,19 +8659,19 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B412">
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D412" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E412">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8685,19 +8679,19 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B413">
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D413" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E413">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F413">
         <v>398</v>
@@ -8705,19 +8699,19 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B414">
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E414">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -8725,19 +8719,19 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B415">
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D415" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E415">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F415">
         <v>398</v>
@@ -8745,19 +8739,19 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B416">
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E416">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8765,19 +8759,19 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B417">
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D417" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E417">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F417">
         <v>398</v>
@@ -8785,19 +8779,19 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B418">
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E418">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -8805,19 +8799,19 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B419">
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E419">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F419">
         <v>398</v>
@@ -8825,19 +8819,19 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B420">
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D420" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E420">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8845,19 +8839,19 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B421">
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E421">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F421">
         <v>398</v>
@@ -8865,19 +8859,19 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B422">
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E422">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8885,19 +8879,19 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D423" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E423">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F423">
         <v>398</v>
@@ -8905,42 +8899,22 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D424" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E424">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="1">
-        <v>440</v>
-      </c>
-      <c r="B425">
-        <v>9400</v>
-      </c>
-      <c r="C425">
-        <v>2802</v>
-      </c>
-      <c r="D425" t="s">
-        <v>22</v>
-      </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425">
-        <v>2802</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="23">
   <si>
     <t>原料长度</t>
   </si>
@@ -70,13 +70,19 @@
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[4798, 6134]</t>
+    <t>[268]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
   </si>
   <si>
-    <t>[4418]</t>
+    <t>[4798, 6134]</t>
+  </si>
+  <si>
+    <t>[3730]</t>
+  </si>
+  <si>
+    <t>[464, 6134]</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F424"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +705,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>12000</v>
@@ -719,7 +725,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -739,7 +745,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>12000</v>
@@ -759,7 +765,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -779,7 +785,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -819,7 +825,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>12000</v>
@@ -839,7 +845,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>12000</v>
@@ -859,7 +865,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>12000</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>12000</v>
@@ -899,7 +905,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>12000</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>12000</v>
@@ -939,7 +945,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>12000</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>12000</v>
@@ -979,7 +985,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -999,59 +1005,59 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C29">
-        <v>5598</v>
+        <v>478</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F30">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1059,39 +1065,39 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1099,19 +1105,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1119,39 +1125,39 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F35">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1159,39 +1165,39 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1199,19 +1205,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1219,39 +1225,39 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F40">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1259,59 +1265,59 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F43">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1319,39 +1325,39 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1359,19 +1365,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1379,39 +1385,39 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F48">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1419,39 +1425,39 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1479,39 +1485,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F53">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1519,59 +1525,59 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F56">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1579,39 +1585,39 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1639,39 +1645,39 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F61">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1679,39 +1685,39 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1739,39 +1745,39 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F66">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1779,59 +1785,59 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F69">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1839,39 +1845,39 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1899,39 +1905,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F74">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1939,39 +1945,39 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1999,39 +2005,39 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F79">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2039,59 +2045,59 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F82">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2099,39 +2105,39 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2159,39 +2165,39 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F87">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2199,39 +2205,39 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2259,39 +2265,39 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F92">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2299,59 +2305,59 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F95">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2359,39 +2365,39 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2419,39 +2425,39 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F100">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2459,39 +2465,39 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2519,39 +2525,39 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B105">
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F105">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B106">
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2559,59 +2565,59 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B107">
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F108">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2619,39 +2625,39 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2679,39 +2685,39 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F113">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2719,39 +2725,39 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E116">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E117">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2779,39 +2785,39 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F118">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2819,59 +2825,59 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F121">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2879,39 +2885,39 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2939,39 +2945,39 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F126">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2979,39 +2985,39 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E129">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3039,39 +3045,39 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F131">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3079,59 +3085,59 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E133">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F134">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3139,39 +3145,39 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3199,39 +3205,39 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F139">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3239,39 +3245,39 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E142">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3279,19 +3285,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3299,39 +3305,39 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F144">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3339,59 +3345,59 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B146">
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B147">
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F147">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3399,39 +3405,39 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3459,39 +3465,39 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F152">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3499,39 +3505,39 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3539,19 +3545,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E156">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3559,39 +3565,39 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F157">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3599,59 +3605,59 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F160">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3659,39 +3665,39 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3699,19 +3705,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3719,39 +3725,39 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F165">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3759,39 +3765,39 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3799,19 +3805,19 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3819,39 +3825,39 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F170">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E171">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3859,59 +3865,59 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E172">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F173">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3919,39 +3925,39 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3959,19 +3965,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E177">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3979,39 +3985,39 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F178">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4019,39 +4025,39 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4059,19 +4065,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E182">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4079,39 +4085,39 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F183">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E184">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4119,59 +4125,59 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F186">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4179,39 +4185,39 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4219,19 +4225,19 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E190">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4239,39 +4245,39 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F191">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4279,39 +4285,39 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4319,19 +4325,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B195">
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E195">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4339,39 +4345,39 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B196">
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F196">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B197">
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D197" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4379,59 +4385,59 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B198">
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E198">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B199">
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F199">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B200">
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4439,39 +4445,39 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B201">
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4479,19 +4485,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4499,39 +4505,39 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F204">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4539,39 +4545,39 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B206">
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B207">
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4579,19 +4585,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B208">
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E208">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4599,39 +4605,39 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B209">
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F209">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B210">
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E210">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4639,79 +4645,79 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B211">
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E211">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B212">
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F212">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B213">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C213">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E213">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4719,19 +4725,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4739,59 +4745,59 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F217">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4799,19 +4805,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D219" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4819,19 +4825,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4839,59 +4845,59 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F222">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E223">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4899,19 +4905,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4919,59 +4925,59 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F225">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E226">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4979,19 +4985,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4999,59 +5005,59 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D230" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F230">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D231" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5059,19 +5065,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D232" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5079,19 +5085,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5099,59 +5105,59 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F235">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5159,19 +5165,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5179,59 +5185,59 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F238">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E239">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5239,19 +5245,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5259,59 +5265,59 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F243">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5319,19 +5325,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D245" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E245">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5339,19 +5345,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5359,59 +5365,59 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F248">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5419,19 +5425,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E250">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5439,59 +5445,59 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F251">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E252">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D253" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5499,19 +5505,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5519,59 +5525,59 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D256" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F256">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D257" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5579,19 +5585,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5599,19 +5605,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5619,59 +5625,59 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F261">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D262" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5679,19 +5685,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5699,59 +5705,59 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E264">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F264">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E265">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5759,19 +5765,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5779,59 +5785,59 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D269" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E269">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F269">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5839,19 +5845,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5859,19 +5865,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D272" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5879,59 +5885,59 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D273" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E273">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D274" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F274">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D275" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E275">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5939,19 +5945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E276">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5959,59 +5965,59 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E277">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F277">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6019,19 +6025,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D280" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E280">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6039,59 +6045,59 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D282" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F282">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D283" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6099,19 +6105,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D284" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6119,19 +6125,19 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D285" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E285">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6139,59 +6145,59 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F287">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E288">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6199,19 +6205,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E289">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6219,59 +6225,59 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E290">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F290">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E291">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D292" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E292">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6279,19 +6285,19 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E293">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6299,59 +6305,59 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D294" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D295" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E295">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F295">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E296">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6359,19 +6365,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D297" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6379,19 +6385,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E298">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6399,59 +6405,59 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E299">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D300" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F300">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E301">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6459,19 +6465,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6479,59 +6485,59 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E303">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F303">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E304">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D305" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E305">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6539,19 +6545,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E306">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6559,59 +6565,59 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E307">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E308">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F308">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E309">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6619,19 +6625,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D310" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E310">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6639,19 +6645,19 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D311" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6659,59 +6665,59 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D313" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F313">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E314">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6719,19 +6725,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E315">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6739,59 +6745,59 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F316">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B317">
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D317" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E317">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D318" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E318">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6799,19 +6805,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E319">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6819,59 +6825,59 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D320" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E320">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D321" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E321">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F321">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D322" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6879,19 +6885,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D323" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6899,19 +6905,19 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6919,59 +6925,59 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E325">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D326" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F326">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D327" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6979,19 +6985,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D328" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -6999,59 +7005,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B329">
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D329" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F329">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D330" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D331" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E331">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7059,19 +7065,19 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D332" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E332">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7079,59 +7085,59 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D333" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E333">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D334" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F334">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D335" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E335">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7139,19 +7145,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D336" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7159,19 +7165,19 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D337" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E337">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7179,59 +7185,59 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D338" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E338">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D339" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F339">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D340" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E340">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7239,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D341" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E341">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7259,59 +7265,59 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E342">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F342">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D343" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D344" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E344">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7319,19 +7325,19 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D345" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E345">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7339,59 +7345,59 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D346" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E346">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D347" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E347">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F347">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D348" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E348">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7399,19 +7405,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D349" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E349">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7419,19 +7425,19 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D350" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E350">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7439,59 +7445,59 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D351" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E351">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D352" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F352">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D353" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E353">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7499,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D354" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E354">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7519,59 +7525,59 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D355" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E355">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F355">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D356" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E356">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D357" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7579,19 +7585,19 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D358" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E358">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7599,59 +7605,59 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D359" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E359">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D360" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E360">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F360">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D361" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E361">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7659,19 +7665,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D362" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E362">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7679,19 +7685,19 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D363" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E363">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7699,59 +7705,59 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D364" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E364">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D365" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F365">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D366" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E366">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7759,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D367" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E367">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7779,59 +7785,59 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D368" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E368">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F368">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D369" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E369">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D370" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E370">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7839,19 +7845,19 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D371" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7859,59 +7865,59 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D372" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E372">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D373" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E373">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F373">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E374">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7919,19 +7925,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D375" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E375">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7939,19 +7945,19 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D376" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E376">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7959,59 +7965,59 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D377" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E377">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D378" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F378">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B379">
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D379" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E379">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8019,19 +8025,19 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B380">
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D380" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E380">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8039,59 +8045,59 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B381">
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D381" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E381">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F381">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B382">
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D382" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E382">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B383">
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D383" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E383">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8099,99 +8105,99 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B384">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C384">
-        <v>2980</v>
+        <v>5598</v>
       </c>
       <c r="D384" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E384">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F384">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B385">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C385">
-        <v>1336</v>
+        <v>5330</v>
       </c>
       <c r="D385" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E385">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B386">
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D386" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F386">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D387" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E387">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F387">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D388" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E388">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8199,99 +8205,99 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D389" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E389">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D390" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E390">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D391" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F391">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D392" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E392">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F392">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D393" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E393">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8299,99 +8305,99 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D394" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E394">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D395" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E395">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D396" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F396">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D397" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E397">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F397">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B398">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C398">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="D398" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E398">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8399,522 +8405,562 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B399">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C399">
-        <v>4982</v>
+        <v>268</v>
       </c>
       <c r="D399" t="s">
         <v>20</v>
       </c>
       <c r="E399">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F399">
-        <v>398</v>
+        <v>268</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B400">
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>1716</v>
+        <v>3266</v>
       </c>
       <c r="D400" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E400">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B401">
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D401" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E401">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F401">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B402">
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D402" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E402">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B403">
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D403" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E403">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F403">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B404">
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D404" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E404">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B405">
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D405" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E405">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F405">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B406">
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D406" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E406">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B407">
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D407" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F407">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D408" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E408">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B409">
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D409" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E409">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F409">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B410">
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D410" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E410">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B411">
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D411" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F411">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B412">
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D412" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E412">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B413">
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D413" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E413">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F413">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B414">
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D414" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E414">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B415">
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D415" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E415">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F415">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B416">
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D416" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E416">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B417">
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D417" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E417">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F417">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B418">
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D418" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E418">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F418">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B419">
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D419" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E419">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F419">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B420">
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D420" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E420">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F420">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B421">
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D421" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E421">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F421">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B422">
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D422" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E422">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F422">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D423" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E423">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F423">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D424" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F424">
-        <v>1716</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="1">
+        <v>450</v>
+      </c>
+      <c r="B425">
+        <v>9400</v>
+      </c>
+      <c r="C425">
+        <v>5670</v>
+      </c>
+      <c r="D425" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425">
+        <v>5670</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1">
+        <v>451</v>
+      </c>
+      <c r="B426">
+        <v>9400</v>
+      </c>
+      <c r="C426">
+        <v>2802</v>
+      </c>
+      <c r="D426" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -34,6 +34,21 @@
     <t>[6134]</t>
   </si>
   <si>
+    <t>[3730, 6134]</t>
+  </si>
+  <si>
+    <t>[3998, 6134]</t>
+  </si>
+  <si>
+    <t>[4266, 6134]</t>
+  </si>
+  <si>
+    <t>[4534, 6134]</t>
+  </si>
+  <si>
+    <t>[4802, 6134]</t>
+  </si>
+  <si>
     <t>[268, 6134]</t>
   </si>
   <si>
@@ -53,21 +68,6 @@
   </si>
   <si>
     <t>[2622, 6134]</t>
-  </si>
-  <si>
-    <t>[3730, 6134]</t>
-  </si>
-  <si>
-    <t>[3998, 6134]</t>
-  </si>
-  <si>
-    <t>[4266, 6134]</t>
-  </si>
-  <si>
-    <t>[4534, 6134]</t>
-  </si>
-  <si>
-    <t>[4802, 6134]</t>
   </si>
   <si>
     <t>[268]</t>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C2">
-        <v>5866</v>
+        <v>3266</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -491,13 +491,13 @@
         <v>12000</v>
       </c>
       <c r="C3">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -511,16 +511,16 @@
         <v>12000</v>
       </c>
       <c r="C4">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F4">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,13 +531,13 @@
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -551,13 +551,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -571,16 +571,16 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -591,13 +591,13 @@
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F9">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -631,16 +631,16 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -651,13 +651,13 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -685,19 +685,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -705,59 +705,59 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -765,22 +765,22 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F17">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -791,13 +791,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -851,13 +851,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -871,53 +871,53 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -945,19 +945,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -965,79 +965,79 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F27">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C29">
-        <v>478</v>
+        <v>2136</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F29">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1045,19 +1045,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1065,59 +1065,59 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F32">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1125,39 +1125,39 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C35">
-        <v>3780</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1165,59 +1165,59 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1225,19 +1225,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1245,19 +1245,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1265,59 +1265,59 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F42">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1325,39 +1325,39 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F45">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1385,39 +1385,39 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1425,59 +1425,59 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F50">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1485,19 +1485,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1505,19 +1505,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1525,59 +1525,59 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F55">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1585,39 +1585,39 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F58">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1625,19 +1625,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
       <c r="E60">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1645,39 +1645,39 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1685,59 +1685,59 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F63">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1745,19 +1745,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1785,59 +1785,59 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F68">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
       <c r="E70">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1845,39 +1845,39 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F71">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1885,19 +1885,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1905,39 +1905,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1945,59 +1945,59 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F76">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2005,19 +2005,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2025,19 +2025,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2045,59 +2045,59 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F81">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2105,39 +2105,39 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F84">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2145,19 +2145,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2165,39 +2165,39 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="E87">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2205,59 +2205,59 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F89">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2265,19 +2265,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2285,19 +2285,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2305,59 +2305,59 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F94">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
       </c>
       <c r="E96">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2365,39 +2365,39 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F97">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2405,19 +2405,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2425,39 +2425,39 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2465,59 +2465,59 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F102">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2525,19 +2525,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2545,19 +2545,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2565,59 +2565,59 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F107">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
       </c>
       <c r="E109">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2625,39 +2625,39 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F110">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
       </c>
       <c r="E111">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2665,19 +2665,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
       </c>
       <c r="E112">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2685,39 +2685,39 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
       <c r="E113">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2725,59 +2725,59 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F115">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2785,19 +2785,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2805,19 +2805,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2825,59 +2825,59 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F120">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E121">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
       </c>
       <c r="E122">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2885,39 +2885,39 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F123">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
       <c r="E124">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2925,19 +2925,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
       </c>
       <c r="E125">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2945,39 +2945,39 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2985,59 +2985,59 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F128">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E130">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3045,19 +3045,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3065,19 +3065,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,59 +3085,59 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F133">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E134">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
       </c>
       <c r="E135">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3145,39 +3145,39 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F136">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
       </c>
       <c r="E137">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,19 +3185,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
       <c r="E138">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3205,39 +3205,39 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
       </c>
       <c r="E139">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,59 +3245,59 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F141">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E144">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3325,19 +3325,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3345,59 +3345,59 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F146">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E147">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
       </c>
       <c r="E148">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3405,39 +3405,39 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F149">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
       </c>
       <c r="E150">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,19 +3445,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3465,39 +3465,39 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
       <c r="E152">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3505,59 +3505,59 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F154">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3565,19 +3565,19 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E157">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3585,19 +3585,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,59 +3605,59 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F159">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E160">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D161" t="s">
         <v>6</v>
       </c>
       <c r="E161">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3665,39 +3665,39 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F162">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
       </c>
       <c r="E163">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3705,19 +3705,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
       </c>
       <c r="E164">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3725,39 +3725,39 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
       <c r="E165">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,59 +3765,59 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F167">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3825,19 +3825,19 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3845,19 +3845,19 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,59 +3865,59 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F172">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E173">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
       </c>
       <c r="E174">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3925,39 +3925,39 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F175">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
       </c>
       <c r="E176">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3985,39 +3985,39 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
       </c>
       <c r="E178">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,59 +4025,59 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F180">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4125,59 +4125,59 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F185">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D187" t="s">
         <v>6</v>
       </c>
       <c r="E187">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4185,39 +4185,39 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F188">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
       </c>
       <c r="E189">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4225,19 +4225,19 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
       </c>
       <c r="E190">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4245,39 +4245,39 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
       <c r="E191">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4285,59 +4285,59 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F193">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B195">
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E195">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4345,19 +4345,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B196">
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E196">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4365,19 +4365,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B197">
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4385,59 +4385,59 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B198">
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F198">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B199">
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E199">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B200">
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D200" t="s">
         <v>6</v>
       </c>
       <c r="E200">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4445,39 +4445,39 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B201">
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
       </c>
       <c r="E201">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F201">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
       </c>
       <c r="E202">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4485,19 +4485,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4505,39 +4505,39 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
       <c r="E204">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4545,59 +4545,59 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B206">
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F206">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B207">
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B208">
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4605,19 +4605,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B209">
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B210">
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E210">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4645,79 +4645,79 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B211">
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F211">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B212">
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E212">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B213">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C213">
-        <v>210</v>
+        <v>2136</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F213">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E214">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4725,19 +4725,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4745,59 +4745,59 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F216">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,19 +4805,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4825,59 +4825,59 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F221">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E222">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4885,19 +4885,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,19 +4905,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4925,59 +4925,59 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E225">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F226">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4985,19 +4985,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5005,59 +5005,59 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F229">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5085,59 +5085,59 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F234">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5145,19 +5145,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,19 +5165,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5185,59 +5185,59 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F239">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5245,19 +5245,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5265,59 +5265,59 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F242">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E243">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,39 +5325,39 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B245">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C245">
-        <v>3780</v>
+        <v>210</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E245">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5365,59 +5365,59 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F247">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E248">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,19 +5425,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5445,19 +5445,19 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5465,59 +5465,59 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F252">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E253">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D254" t="s">
         <v>6</v>
       </c>
       <c r="E254">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5525,39 +5525,39 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
       </c>
       <c r="E255">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F255">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D256" t="s">
         <v>8</v>
       </c>
       <c r="E256">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5565,19 +5565,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D257" t="s">
         <v>9</v>
       </c>
       <c r="E257">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,39 +5585,39 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D258" t="s">
         <v>10</v>
       </c>
       <c r="E258">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5625,59 +5625,59 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E260">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F260">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E261">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,19 +5685,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E263">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5705,19 +5705,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E264">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5725,59 +5725,59 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F265">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D266" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E266">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D267" t="s">
         <v>6</v>
       </c>
       <c r="E267">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5785,39 +5785,39 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
       </c>
       <c r="E268">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F268">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D269" t="s">
         <v>8</v>
       </c>
       <c r="E269">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5825,19 +5825,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
       </c>
       <c r="E270">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,39 +5845,39 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D271" t="s">
         <v>10</v>
       </c>
       <c r="E271">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5885,59 +5885,59 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E273">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F273">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E274">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E275">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E276">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5965,19 +5965,19 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E277">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5985,59 +5985,59 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F278">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E279">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D280" t="s">
         <v>6</v>
       </c>
       <c r="E280">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6045,39 +6045,39 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D281" t="s">
         <v>7</v>
       </c>
       <c r="E281">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F281">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D282" t="s">
         <v>8</v>
       </c>
       <c r="E282">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6085,19 +6085,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D283" t="s">
         <v>9</v>
       </c>
       <c r="E283">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,39 +6105,39 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D284" t="s">
         <v>10</v>
       </c>
       <c r="E284">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E285">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6151,16 +6151,16 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E286">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F286">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6171,16 +6171,16 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E287">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6191,13 +6191,13 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D288" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E288">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6211,13 +6211,13 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E289">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6231,13 +6231,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E290">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6251,16 +6251,16 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F291">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6271,16 +6271,16 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D292" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E292">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6291,13 +6291,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D293" t="s">
         <v>6</v>
       </c>
       <c r="E293">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
       </c>
       <c r="E294">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F294">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6331,13 +6331,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D295" t="s">
         <v>8</v>
       </c>
       <c r="E295">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6351,13 +6351,13 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D296" t="s">
         <v>9</v>
       </c>
       <c r="E296">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6371,16 +6371,16 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D297" t="s">
         <v>10</v>
       </c>
       <c r="E297">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6391,13 +6391,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E299">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F299">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6431,16 +6431,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E300">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6451,13 +6451,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E301">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6471,13 +6471,13 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E302">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6491,13 +6491,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E303">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F304">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6531,16 +6531,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D305" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E305">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6551,13 +6551,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D306" t="s">
         <v>6</v>
       </c>
       <c r="E306">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6571,16 +6571,16 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D307" t="s">
         <v>7</v>
       </c>
       <c r="E307">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F307">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6591,13 +6591,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D308" t="s">
         <v>8</v>
       </c>
       <c r="E308">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6611,13 +6611,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D309" t="s">
         <v>9</v>
       </c>
       <c r="E309">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6631,16 +6631,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D310" t="s">
         <v>10</v>
       </c>
       <c r="E310">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6651,13 +6651,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D311" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E311">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E312">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F312">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6691,16 +6691,16 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E313">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6711,13 +6711,13 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E314">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6731,13 +6731,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E315">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6751,13 +6751,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E316">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6771,16 +6771,16 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F317">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6791,16 +6791,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E318">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6811,13 +6811,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
       </c>
       <c r="E319">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6825,39 +6825,39 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D320" t="s">
         <v>7</v>
       </c>
       <c r="E320">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F320">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D321" t="s">
         <v>8</v>
       </c>
       <c r="E321">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6865,19 +6865,19 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D322" t="s">
         <v>9</v>
       </c>
       <c r="E322">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,39 +6885,39 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D323" t="s">
         <v>10</v>
       </c>
       <c r="E323">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E324">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6925,22 +6925,22 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E325">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F325">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6951,16 +6951,16 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E326">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6971,13 +6971,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E327">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6991,13 +6991,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E328">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7011,13 +7011,13 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E329">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7025,59 +7025,59 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F330">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D331" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E331">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
       </c>
       <c r="E332">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7085,39 +7085,39 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D333" t="s">
         <v>7</v>
       </c>
       <c r="E333">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F333">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D334" t="s">
         <v>8</v>
       </c>
       <c r="E334">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D335" t="s">
         <v>9</v>
       </c>
       <c r="E335">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,39 +7145,39 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D336" t="s">
         <v>10</v>
       </c>
       <c r="E336">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D337" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E337">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7185,59 +7185,59 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D338" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E338">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F338">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E339">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E340">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E341">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,19 +7265,19 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E342">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7285,59 +7285,59 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F343">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D344" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E344">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D345" t="s">
         <v>6</v>
       </c>
       <c r="E345">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7345,39 +7345,39 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
       </c>
       <c r="E346">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F346">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D347" t="s">
         <v>8</v>
       </c>
       <c r="E347">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D348" t="s">
         <v>9</v>
       </c>
       <c r="E348">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,39 +7405,39 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D349" t="s">
         <v>10</v>
       </c>
       <c r="E349">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E350">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7445,59 +7445,59 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E351">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F351">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D352" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E352">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D353" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E353">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D354" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E354">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,19 +7525,19 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E355">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7545,59 +7545,59 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D356" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F356">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D357" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E357">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D358" t="s">
         <v>6</v>
       </c>
       <c r="E358">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7605,39 +7605,39 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D359" t="s">
         <v>7</v>
       </c>
       <c r="E359">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F359">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D360" t="s">
         <v>8</v>
       </c>
       <c r="E360">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7645,19 +7645,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D361" t="s">
         <v>9</v>
       </c>
       <c r="E361">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,39 +7665,39 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
       </c>
       <c r="E362">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D363" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E363">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7705,59 +7705,59 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E364">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F364">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E365">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E366">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E367">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,19 +7785,19 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E368">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7805,59 +7805,59 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D369" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F369">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E370">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D371" t="s">
         <v>6</v>
       </c>
       <c r="E371">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7865,39 +7865,39 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D372" t="s">
         <v>7</v>
       </c>
       <c r="E372">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F372">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D373" t="s">
         <v>8</v>
       </c>
       <c r="E373">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7905,19 +7905,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D374" t="s">
         <v>9</v>
       </c>
       <c r="E374">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,39 +7925,39 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D375" t="s">
         <v>10</v>
       </c>
       <c r="E375">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D376" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E376">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7965,42 +7965,42 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D377" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E377">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F377">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E378">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8011,13 +8011,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E379">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D380" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E380">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8051,13 +8051,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D381" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E381">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8071,16 +8071,16 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D382" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F382">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8091,16 +8091,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D383" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E383">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8111,13 +8111,13 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D384" t="s">
         <v>6</v>
       </c>
       <c r="E384">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8131,16 +8131,16 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
       </c>
       <c r="E385">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F385">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8148,16 +8148,16 @@
         <v>405</v>
       </c>
       <c r="B386">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C386">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="D386" t="s">
         <v>8</v>
       </c>
       <c r="E386">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8165,99 +8165,99 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>2448</v>
+        <v>532</v>
       </c>
       <c r="D387" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E387">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F387">
-        <v>44</v>
+        <v>532</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D388" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E388">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D389" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F389">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D390" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E390">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F390">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D391" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E391">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8265,99 +8265,99 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D392" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E392">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F392">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D393" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E393">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D394" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F394">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D395" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E395">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F395">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="D396" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E396">
-        <v>3516</v>
+        <v>1336</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -8365,87 +8365,87 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>2448</v>
+        <v>268</v>
       </c>
       <c r="D397" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E397">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F397">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B398">
         <v>11200</v>
       </c>
       <c r="C398">
-        <v>1336</v>
+        <v>5066</v>
       </c>
       <c r="D398" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E398">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B399">
         <v>11200</v>
       </c>
       <c r="C399">
-        <v>268</v>
+        <v>3516</v>
       </c>
       <c r="D399" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F399">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B400">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C400">
-        <v>3266</v>
+        <v>2448</v>
       </c>
       <c r="D400" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E400">
         <v>2404</v>
       </c>
       <c r="F400">
-        <v>862</v>
+        <v>44</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B401">
         <v>9400</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B402">
         <v>9400</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B403">
         <v>9400</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B404">
         <v>9400</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B405">
         <v>9400</v>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B406">
         <v>9400</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B407">
         <v>9400</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B408">
         <v>9400</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B409">
         <v>9400</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B410">
         <v>9400</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B411">
         <v>9400</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B412">
         <v>9400</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B413">
         <v>9400</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B414">
         <v>9400</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B415">
         <v>9400</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B416">
         <v>9400</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B417">
         <v>9400</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B418">
         <v>9400</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B419">
         <v>9400</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B420">
         <v>9400</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B421">
         <v>9400</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B422">
         <v>9400</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B423">
         <v>9400</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B424">
         <v>9400</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B425">
         <v>9400</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="1">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B426">
         <v>9400</v>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -685,7 +685,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>12000</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>12000</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>12000</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>12000</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>12000</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>12000</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>12000</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>12000</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>12000</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>12000</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>12000</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>12000</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>12000</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>12000</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>12000</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>12000</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>12000</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>12000</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>12000</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>12000</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>12000</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>12000</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>12000</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>12000</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>12000</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>12000</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>12000</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>12000</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>12000</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>12000</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>12000</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>12000</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>12000</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>12000</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>12000</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>12000</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>12000</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>12000</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>12000</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>12000</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>12000</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>12000</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>12000</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>12000</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>12000</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>12000</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>12000</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>12000</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>12000</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>12000</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>12000</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>12000</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>12000</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>12000</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>12000</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>12000</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>12000</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>12000</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>12000</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>12000</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>12000</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>12000</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>12000</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>12000</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>12000</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>12000</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>12000</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>12000</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>12000</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>12000</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>12000</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>12000</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>12000</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>12000</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>12000</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>12000</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>12000</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>12000</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>12000</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>12000</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>12000</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>12000</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>12000</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>12000</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>12000</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>12000</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>12000</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>12000</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>12000</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>12000</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>12000</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>12000</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>12000</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>12000</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>12000</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>12000</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>12000</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>12000</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B118">
         <v>12000</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>12000</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>12000</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>12000</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>12000</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>12000</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>12000</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>12000</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>12000</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>12000</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>12000</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>12000</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>12000</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B131">
         <v>12000</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>12000</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>12000</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>12000</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>12000</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>12000</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>12000</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>12000</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>12000</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>12000</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>12000</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>12000</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>12000</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>12000</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>12000</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B146">
         <v>12000</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B147">
         <v>12000</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148">
         <v>12000</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B149">
         <v>12000</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B150">
         <v>12000</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B151">
         <v>12000</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B152">
         <v>12000</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B153">
         <v>12000</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B154">
         <v>12000</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <v>12000</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B156">
         <v>12000</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>12000</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>12000</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B159">
         <v>12000</v>
@@ -3625,39 +3625,39 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B160">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C160">
-        <v>5330</v>
+        <v>210</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>746</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3665,19 +3665,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3685,39 +3685,39 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3725,39 +3725,39 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F165">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,19 +3765,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3785,39 +3785,39 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3825,39 +3825,39 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F170">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3885,27 +3885,27 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B173">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C173">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B174">
         <v>12000</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B175">
         <v>12000</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B176">
         <v>12000</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B177">
         <v>12000</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B178">
         <v>12000</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B179">
         <v>12000</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B180">
         <v>12000</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B181">
         <v>12000</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>12000</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>12000</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B184">
         <v>12000</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B185">
         <v>12000</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B186">
         <v>12000</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B187">
         <v>12000</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B188">
         <v>12000</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B189">
         <v>12000</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B190">
         <v>12000</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B191">
         <v>12000</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B192">
         <v>12000</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B193">
         <v>12000</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>12000</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B195">
         <v>12000</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B196">
         <v>12000</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B197">
         <v>12000</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B198">
         <v>12000</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B199">
         <v>12000</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B200">
         <v>12000</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B201">
         <v>12000</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B202">
         <v>12000</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B203">
         <v>12000</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B204">
         <v>12000</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B205">
         <v>12000</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B206">
         <v>12000</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B207">
         <v>12000</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B208">
         <v>12000</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B209">
         <v>12000</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B210">
         <v>12000</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B211">
         <v>12000</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B212">
         <v>12000</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B213">
         <v>12000</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B214">
         <v>12000</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B215">
         <v>12000</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B216">
         <v>12000</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B217">
         <v>12000</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B218">
         <v>12000</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B219">
         <v>12000</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B220">
         <v>12000</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B221">
         <v>12000</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B222">
         <v>12000</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B223">
         <v>12000</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B224">
         <v>12000</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B225">
         <v>12000</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B226">
         <v>12000</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B227">
         <v>12000</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B228">
         <v>12000</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B229">
         <v>12000</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B230">
         <v>12000</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B231">
         <v>12000</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B232">
         <v>12000</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B233">
         <v>12000</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B234">
         <v>12000</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B235">
         <v>12000</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B236">
         <v>12000</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B237">
         <v>12000</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B238">
         <v>12000</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B239">
         <v>12000</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B240">
         <v>12000</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B241">
         <v>12000</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B242">
         <v>12000</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B243">
         <v>12000</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B244">
         <v>12000</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B245">
         <v>12000</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B246">
         <v>12000</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B247">
         <v>12000</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B248">
         <v>12000</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B249">
         <v>12000</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B250">
         <v>12000</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B251">
         <v>12000</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B252">
         <v>12000</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B253">
         <v>12000</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B254">
         <v>12000</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B255">
         <v>12000</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B256">
         <v>12000</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B257">
         <v>12000</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B258">
         <v>12000</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B259">
         <v>12000</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B260">
         <v>12000</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B261">
         <v>12000</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B262">
         <v>12000</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B263">
         <v>12000</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B264">
         <v>12000</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B265">
         <v>12000</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B266">
         <v>12000</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B267">
         <v>12000</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B268">
         <v>12000</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B269">
         <v>12000</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B270">
         <v>12000</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B271">
         <v>12000</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B272">
         <v>12000</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B273">
         <v>12000</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B274">
         <v>12000</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B275">
         <v>12000</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B276">
         <v>12000</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B277">
         <v>12000</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B278">
         <v>12000</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B279">
         <v>12000</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B280">
         <v>12000</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B281">
         <v>12000</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B282">
         <v>12000</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B283">
         <v>12000</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B284">
         <v>12000</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B285">
         <v>12000</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B286">
         <v>12000</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B287">
         <v>12000</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B288">
         <v>12000</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B289">
         <v>12000</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B290">
         <v>12000</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B291">
         <v>12000</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B292">
         <v>12000</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B293">
         <v>12000</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B294">
         <v>12000</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B295">
         <v>12000</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B296">
         <v>12000</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B297">
         <v>12000</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B298">
         <v>12000</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B299">
         <v>12000</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B300">
         <v>12000</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B301">
         <v>12000</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B302">
         <v>12000</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B303">
         <v>12000</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B304">
         <v>12000</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B305">
         <v>12000</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B306">
         <v>12000</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B307">
         <v>12000</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B308">
         <v>12000</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B309">
         <v>12000</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B310">
         <v>12000</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B311">
         <v>12000</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B312">
         <v>12000</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B313">
         <v>12000</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B314">
         <v>12000</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B315">
         <v>12000</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B316">
         <v>12000</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B317">
         <v>12000</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B318">
         <v>12000</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B319">
         <v>12000</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B320">
         <v>12000</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B321">
         <v>12000</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B322">
         <v>12000</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B323">
         <v>12000</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B324">
         <v>12000</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B325">
         <v>12000</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B326">
         <v>12000</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B327">
         <v>12000</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B328">
         <v>12000</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B329">
         <v>12000</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B330">
         <v>12000</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B331">
         <v>12000</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B332">
         <v>12000</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B333">
         <v>12000</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B334">
         <v>12000</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B335">
         <v>12000</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B336">
         <v>12000</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B337">
         <v>12000</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B338">
         <v>12000</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B339">
         <v>12000</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B340">
         <v>12000</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B341">
         <v>12000</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B342">
         <v>12000</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B343">
         <v>12000</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B344">
         <v>12000</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B345">
         <v>12000</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B346">
         <v>12000</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B347">
         <v>12000</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B348">
         <v>12000</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B349">
         <v>12000</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B350">
         <v>12000</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B351">
         <v>12000</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B352">
         <v>12000</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B353">
         <v>12000</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B354">
         <v>12000</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B355">
         <v>12000</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B356">
         <v>12000</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B357">
         <v>12000</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B358">
         <v>12000</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B359">
         <v>12000</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B360">
         <v>12000</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B361">
         <v>12000</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B362">
         <v>12000</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B363">
         <v>12000</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B364">
         <v>12000</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B365">
         <v>12000</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B366">
         <v>12000</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B367">
         <v>12000</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B368">
         <v>12000</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B369">
         <v>12000</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B370">
         <v>12000</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B371">
         <v>12000</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B372">
         <v>12000</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B373">
         <v>12000</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B374">
         <v>12000</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B375">
         <v>12000</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B376">
         <v>12000</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B377">
         <v>12000</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B378">
         <v>12000</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B379">
         <v>12000</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B380">
         <v>12000</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B381">
         <v>12000</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B382">
         <v>12000</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B383">
         <v>12000</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B384">
         <v>12000</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B385">
         <v>11200</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B386">
         <v>11200</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B387">
         <v>11200</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B388">
         <v>11200</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B389">
         <v>11200</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B390">
         <v>11200</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B391">
         <v>11200</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B392">
         <v>11200</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B393">
         <v>11200</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B394">
         <v>11200</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B395">
         <v>11200</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B396">
         <v>11200</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B397">
         <v>11200</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B398">
         <v>11200</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B399">
         <v>9400</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B400">
         <v>9400</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B401">
         <v>9400</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B402">
         <v>9400</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B403">
         <v>9400</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B404">
         <v>9400</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B405">
         <v>9400</v>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B406">
         <v>9400</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B407">
         <v>9400</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B408">
         <v>9400</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B409">
         <v>9400</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B410">
         <v>9400</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B411">
         <v>9400</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B412">
         <v>9400</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B413">
         <v>9400</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B414">
         <v>9400</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B415">
         <v>9400</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="B416">
         <v>9400</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B417">
         <v>9400</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="B418">
         <v>9400</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B419">
         <v>9400</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B420">
         <v>9400</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B421">
         <v>9400</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B422">
         <v>9400</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B423">
         <v>9400</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B424">
         <v>9400</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B425">
         <v>9400</v>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="23">
   <si>
     <t>原料长度</t>
   </si>
@@ -70,7 +70,7 @@
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[268]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F425"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,7 +685,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12000</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>12000</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -745,59 +745,59 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F17">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -805,39 +805,39 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -845,19 +845,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -865,39 +865,39 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -905,39 +905,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -945,19 +945,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -965,39 +965,39 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F27">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1005,59 +1005,59 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F30">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1065,39 +1065,39 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1125,39 +1125,39 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F35">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1165,39 +1165,39 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1225,39 +1225,39 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F40">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1265,79 +1265,79 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F43">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C44">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1345,19 +1345,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1365,59 +1365,59 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F48">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1445,19 +1445,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1465,59 +1465,59 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F53">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1545,59 +1545,59 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F56">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1605,19 +1605,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1625,59 +1625,59 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F61">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1685,19 +1685,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1705,19 +1705,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1725,59 +1725,59 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F66">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1805,59 +1805,59 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F69">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1885,59 +1885,59 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F74">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1945,19 +1945,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1985,59 +1985,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F79">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2045,19 +2045,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2065,59 +2065,59 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F82">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2125,19 +2125,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2145,59 +2145,59 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F87">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2225,19 +2225,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2245,59 +2245,59 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F92">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2305,19 +2305,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2325,59 +2325,59 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F95">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2385,19 +2385,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2405,59 +2405,59 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F100">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2465,19 +2465,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2485,19 +2485,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2505,59 +2505,59 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E104">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F105">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2585,59 +2585,59 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F108">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2645,19 +2645,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2665,59 +2665,59 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F113">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2725,19 +2725,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2745,19 +2745,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2765,59 +2765,59 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F118">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2825,19 +2825,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2845,59 +2845,59 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F121">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2905,19 +2905,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2925,59 +2925,59 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F126">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2985,19 +2985,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3005,19 +3005,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3025,59 +3025,59 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F131">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E132">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3105,59 +3105,59 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F134">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,59 +3185,59 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F139">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,19 +3245,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3265,19 +3265,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3285,59 +3285,59 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F144">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E145">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3345,19 +3345,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3365,59 +3365,59 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B147">
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E147">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F147">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E148">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3425,19 +3425,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,59 +3445,59 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F152">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3505,19 +3505,19 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E154">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3525,19 +3525,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3545,59 +3545,59 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E156">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F157">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,19 +3605,19 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3625,59 +3625,59 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C160">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F160">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E161">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3685,59 +3685,59 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F163">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,19 +3765,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3785,59 +3785,59 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F168">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3845,19 +3845,19 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E172">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3891,16 +3891,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F173">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3911,16 +3911,16 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3931,13 +3931,13 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3945,59 +3945,59 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F176">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4005,19 +4005,19 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,19 +4025,19 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4045,59 +4045,59 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F181">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E182">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E183">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4131,13 +4131,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4151,16 +4151,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F186">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4171,16 +4171,16 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E187">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4191,13 +4191,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F189">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4231,16 +4231,16 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4251,13 +4251,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4291,13 +4291,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F194">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4331,16 +4331,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4351,13 +4351,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4371,13 +4371,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E197">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F199">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4431,16 +4431,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E200">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4451,13 +4451,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4471,16 +4471,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F202">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4491,16 +4491,16 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4511,13 +4511,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4531,13 +4531,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4571,16 +4571,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F207">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4591,16 +4591,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4611,13 +4611,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4645,19 +4645,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211">
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4665,59 +4665,59 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212">
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F212">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213">
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E213">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4725,59 +4725,59 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F215">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4785,19 +4785,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,19 +4805,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4825,59 +4825,59 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F220">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4885,19 +4885,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E223">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,19 +4905,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4925,59 +4925,59 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F225">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E226">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4985,59 +4985,59 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F228">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5071,13 +5071,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5091,16 +5091,16 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F233">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5111,16 +5111,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5131,13 +5131,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E235">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5145,19 +5145,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,19 +5165,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5185,59 +5185,59 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F238">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E239">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5245,59 +5245,59 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F241">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5305,19 +5305,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,19 +5325,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E245">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5345,59 +5345,59 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F246">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5405,19 +5405,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,19 +5425,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E250">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5445,59 +5445,59 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F251">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E252">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5505,59 +5505,59 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F254">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5565,19 +5565,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,19 +5585,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5605,59 +5605,59 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F259">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5665,19 +5665,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,19 +5685,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5705,59 +5705,59 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F264">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E265">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5765,59 +5765,59 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F267">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E269">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5825,19 +5825,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,19 +5845,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5865,59 +5865,59 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F272">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E273">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E275">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E276">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5965,59 +5965,59 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F277">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D278" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6025,59 +6025,59 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E280">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F280">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6085,19 +6085,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,19 +6105,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6125,59 +6125,59 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D285" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E285">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F285">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D287" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E287">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6185,19 +6185,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D288" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E288">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,19 +6205,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E289">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6225,59 +6225,59 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F290">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D291" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E291">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E292">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6285,59 +6285,59 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E293">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F293">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E295">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6345,19 +6345,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E296">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,19 +6365,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6385,59 +6385,59 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E298">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F298">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E299">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6445,19 +6445,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E301">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,19 +6465,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6485,59 +6485,59 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F303">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E304">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E305">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6545,59 +6545,59 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E306">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F306">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E307">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E308">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E309">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,19 +6625,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E310">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6645,59 +6645,59 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F311">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E313">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6705,19 +6705,19 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E314">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E315">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6745,59 +6745,59 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D316" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F316">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B317">
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D317" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E317">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D318" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E318">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6805,59 +6805,59 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E319">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F319">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E320">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E321">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6865,19 +6865,19 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,19 +6885,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D323" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6905,59 +6905,59 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D324" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F324">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D325" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E325">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E326">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6965,19 +6965,19 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D328" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7005,59 +7005,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B329">
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D329" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F329">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E331">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7065,59 +7065,59 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E332">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F332">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E333">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E335">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,19 +7145,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7165,59 +7165,59 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E337">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F337">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E338">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E339">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7225,19 +7225,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E340">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E341">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,59 +7265,59 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F342">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D343" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E344">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7325,59 +7325,59 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E345">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F345">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E346">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E347">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E348">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,19 +7405,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E349">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7425,59 +7425,59 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E350">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F350">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E351">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E352">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7485,19 +7485,19 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E353">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E354">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,59 +7525,59 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D355" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F355">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E356">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7585,59 +7585,59 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E358">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F358">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E359">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E360">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7645,19 +7645,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E361">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,19 +7665,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E362">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7685,59 +7685,59 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D363" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E363">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F363">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E364">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7745,19 +7745,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E366">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D367" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E367">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,59 +7785,59 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D368" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F368">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D369" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E369">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D370" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E370">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7845,59 +7845,59 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D371" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F371">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E372">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E373">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7905,19 +7905,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D374" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E374">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,19 +7925,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D375" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E375">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7945,59 +7945,59 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D376" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E376">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F376">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E377">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D378" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E378">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8005,19 +8005,19 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B379">
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E379">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8025,19 +8025,19 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B380">
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D380" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E380">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8045,59 +8045,59 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B381">
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F381">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B382">
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D382" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E382">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B383">
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D383" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E383">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8105,841 +8105,861 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B384">
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E384">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F384">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B385">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C385">
-        <v>3516</v>
+        <v>5330</v>
       </c>
       <c r="D385" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E385">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B386">
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D386" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E386">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F386">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D387" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E387">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D388" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F388">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D389" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E389">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D390" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E390">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D391" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E391">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F391">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D392" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E392">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D393" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F393">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D394" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E394">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D395" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E395">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D396" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E396">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F396">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E397">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B398">
         <v>11200</v>
       </c>
       <c r="C398">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D398" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F398">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B399">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C399">
-        <v>3266</v>
+        <v>268</v>
       </c>
       <c r="D399" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E399">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F399">
-        <v>862</v>
+        <v>268</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B400">
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>5670</v>
+        <v>3266</v>
       </c>
       <c r="D400" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E400">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B401">
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D401" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E401">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F401">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B402">
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D402" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E402">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B403">
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D403" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E403">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F403">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B404">
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E404">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B405">
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D405" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E405">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F405">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B406">
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E406">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B407">
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D407" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F407">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D408" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E408">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B409">
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D409" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E409">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F409">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B410">
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E410">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B411">
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D411" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F411">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B412">
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D412" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E412">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B413">
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D413" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E413">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F413">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B414">
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E414">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B415">
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D415" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E415">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F415">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B416">
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E416">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B417">
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D417" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E417">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F417">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B418">
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E418">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F418">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B419">
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E419">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F419">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B420">
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D420" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E420">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F420">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B421">
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E421">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F421">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B422">
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E422">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F422">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D423" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E423">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F423">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D424" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E424">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B425">
         <v>9400</v>
       </c>
       <c r="C425">
+        <v>5670</v>
+      </c>
+      <c r="D425" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425">
+        <v>5670</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1">
+        <v>446</v>
+      </c>
+      <c r="B426">
+        <v>9400</v>
+      </c>
+      <c r="C426">
         <v>2802</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D426" t="s">
         <v>22</v>
       </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425">
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="23">
   <si>
     <t>原料长度</t>
   </si>
@@ -40,49 +40,49 @@
     <t>[536, 6134]</t>
   </si>
   <si>
-    <t>[1550, 6134]</t>
+    <t>[1650, 6134]</t>
   </si>
   <si>
-    <t>[1818, 6134]</t>
+    <t>[1918, 6134]</t>
   </si>
   <si>
-    <t>[2086, 6134]</t>
+    <t>[2186, 6134]</t>
   </si>
   <si>
-    <t>[2354, 6134]</t>
+    <t>[2454, 6134]</t>
   </si>
   <si>
-    <t>[2622, 6134]</t>
+    <t>[2722, 6134]</t>
   </si>
   <si>
-    <t>[3730, 6134]</t>
+    <t>[3830, 6134]</t>
   </si>
   <si>
-    <t>[3998, 6134]</t>
+    <t>[4098, 6134]</t>
   </si>
   <si>
-    <t>[4266, 6134]</t>
+    <t>[4366, 6134]</t>
   </si>
   <si>
-    <t>[4534, 6134]</t>
+    <t>[4634, 6134]</t>
   </si>
   <si>
-    <t>[4802, 6134]</t>
+    <t>[4902, 6134]</t>
   </si>
   <si>
-    <t>[268]</t>
+    <t>[536]</t>
   </si>
   <si>
-    <t>[2618, 6134]</t>
+    <t>[2718, 6134]</t>
   </si>
   <si>
-    <t>[4798, 6134]</t>
+    <t>[4898, 6134]</t>
   </si>
   <si>
-    <t>[3730]</t>
+    <t>[3830]</t>
   </si>
   <si>
-    <t>[464, 6134]</t>
+    <t>[4518]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +517,10 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4584</v>
+        <v>4484</v>
       </c>
       <c r="F4">
-        <v>746</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,13 +531,13 @@
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -551,13 +551,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -611,13 +611,13 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3244</v>
+        <v>3144</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>2404</v>
+        <v>2304</v>
       </c>
       <c r="F9">
         <v>840</v>
@@ -631,13 +631,13 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>1232</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>1232</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>964</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -748,19 +748,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C16">
-        <v>478</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F16">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -771,16 +771,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -791,13 +791,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F19">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -831,13 +831,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -891,13 +891,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -911,16 +911,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F24">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -931,13 +931,13 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -971,16 +971,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -991,13 +991,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F29">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1031,16 +1031,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1051,13 +1051,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F32">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1091,13 +1091,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1131,16 +1131,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1151,13 +1151,13 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1191,13 +1191,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1251,13 +1251,13 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F42">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1291,16 +1291,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1308,19 +1308,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C44">
-        <v>210</v>
+        <v>4216</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F44">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1331,13 +1331,13 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1345,19 +1345,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1365,59 +1365,59 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F47">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1445,19 +1445,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1465,59 +1465,59 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F52">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1545,59 +1545,59 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F57">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1605,19 +1605,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1625,59 +1625,59 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F60">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1685,19 +1685,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1705,19 +1705,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1725,59 +1725,59 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F65">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1831,16 +1831,16 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F70">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1851,13 +1851,13 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1885,59 +1885,59 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F73">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1945,19 +1945,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1985,59 +1985,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F78">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2045,19 +2045,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2091,16 +2091,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F83">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2111,13 +2111,13 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F86">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2171,16 +2171,16 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2191,13 +2191,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E88">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F91">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2271,16 +2271,16 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2291,13 +2291,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2351,16 +2351,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F96">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2371,13 +2371,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2391,13 +2391,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F99">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2431,16 +2431,16 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2451,13 +2451,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2471,13 +2471,13 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E104">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F104">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2531,16 +2531,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2551,13 +2551,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2611,16 +2611,16 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F109">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2631,13 +2631,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2671,16 +2671,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F112">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2691,16 +2691,16 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2711,13 +2711,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2745,19 +2745,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E116">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2765,59 +2765,59 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F117">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2825,19 +2825,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2845,42 +2845,42 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F122">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2891,13 +2891,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2911,13 +2911,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2931,16 +2931,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F125">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2951,16 +2951,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2971,13 +2971,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E128">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3011,13 +3011,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3025,59 +3025,59 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E130">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F130">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E131">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3105,59 +3105,59 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F135">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,59 +3185,59 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F138">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E140">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,19 +3245,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E141">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3265,19 +3265,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3285,59 +3285,59 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F143">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3345,19 +3345,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3365,59 +3365,59 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F148">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3425,19 +3425,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,59 +3445,59 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F151">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E153">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3505,19 +3505,19 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3525,19 +3525,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3545,59 +3545,59 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E156">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F156">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D158" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,19 +3605,19 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3625,59 +3625,59 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F161">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3685,19 +3685,19 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3705,59 +3705,59 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E164">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F164">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E166">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,19 +3765,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3785,19 +3785,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3805,59 +3805,59 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F169">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E170">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3885,59 +3885,59 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F174">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3945,19 +3945,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3965,59 +3965,59 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F177">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,19 +4025,19 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4045,19 +4045,19 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4065,59 +4065,59 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D182" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F182">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E183">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4131,13 +4131,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4151,16 +4151,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4171,33 +4171,33 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F187">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4205,19 +4205,19 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D189" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4225,59 +4225,59 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F190">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4285,19 +4285,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E193">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4305,19 +4305,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E194">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4331,16 +4331,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E195">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F195">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4351,16 +4351,16 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D196" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E196">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4371,13 +4371,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D197" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4431,16 +4431,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F200">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4451,13 +4451,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E201">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4471,13 +4471,13 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4491,16 +4491,16 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F203">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4511,16 +4511,16 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4531,13 +4531,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4565,19 +4565,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B207">
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E207">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4585,59 +4585,59 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B208">
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E208">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F208">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B209">
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D209" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E209">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210">
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4651,13 +4651,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D211" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4671,53 +4671,53 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B213">
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F213">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4725,19 +4725,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4745,59 +4745,59 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F216">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,19 +4805,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E219">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4825,19 +4825,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E220">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4845,59 +4845,59 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E221">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F221">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E222">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,19 +4905,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4931,53 +4931,53 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F226">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4985,19 +4985,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5005,59 +5005,59 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F229">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E232">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5085,19 +5085,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5105,59 +5105,59 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F234">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D236" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,19 +5165,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5185,59 +5185,59 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F239">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5245,19 +5245,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5265,59 +5265,59 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F242">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E244">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,19 +5325,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5345,19 +5345,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E246">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5365,59 +5365,59 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E247">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F247">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D249" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,19 +5425,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5445,59 +5445,59 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F252">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5525,59 +5525,59 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E255">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F255">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E257">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,19 +5585,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5605,19 +5605,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E259">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5625,59 +5625,59 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D260" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F260">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,19 +5685,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D263" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5705,59 +5705,59 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F265">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D266" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5765,19 +5765,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5785,59 +5785,59 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E268">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F268">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E269">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D270" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,19 +5845,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D271" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E271">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5865,19 +5865,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E272">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5885,59 +5885,59 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D273" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E273">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F273">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E274">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D275" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D276" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E276">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5965,59 +5965,59 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F278">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6025,19 +6025,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E280">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6045,59 +6045,59 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E281">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F281">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E283">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,19 +6105,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D284" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E284">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6125,19 +6125,19 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E285">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6145,59 +6145,59 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D286" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E286">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F286">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D287" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D288" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E288">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,19 +6205,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6225,59 +6225,59 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D290" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E290">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F291">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D292" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E292">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6285,19 +6285,19 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6305,59 +6305,59 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E294">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F294">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E295">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E296">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,19 +6365,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E297">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6405,59 +6405,59 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D299" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E299">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F299">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E300">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D301" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,19 +6465,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E302">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6485,59 +6485,59 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D304" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F304">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D305" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E305">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6545,19 +6545,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E306">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6565,59 +6565,59 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E307">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F307">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D308" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E308">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D309" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E309">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,19 +6625,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E310">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6645,19 +6645,19 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D311" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E311">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6665,59 +6665,59 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D312" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E312">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F312">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D313" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E313">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D314" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E314">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6745,59 +6745,59 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E316">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B317">
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F317">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E318">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6805,19 +6805,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E319">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6825,59 +6825,59 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E320">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F320">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E321">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D322" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E322">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,19 +6885,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E323">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6905,19 +6905,19 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E324">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6925,59 +6925,59 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E325">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F325">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E326">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E327">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E328">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7005,59 +7005,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B329">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C329">
-        <v>1332</v>
+        <v>304</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E329">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F330">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7065,59 +7065,59 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E332">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F333">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E334">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D335" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E335">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,19 +7145,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D336" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E336">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7165,59 +7165,59 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E337">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D338" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F338">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E339">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7225,19 +7225,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D340" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E340">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E341">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,59 +7265,59 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E342">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F343">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D344" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7325,59 +7325,59 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D345" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E345">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E346">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F346">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D347" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E347">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D348" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E348">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,19 +7405,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E349">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7425,59 +7425,59 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E350">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D351" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E351">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F351">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E352">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7485,19 +7485,19 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D353" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E353">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D354" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E354">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,59 +7525,59 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E355">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D356" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F356">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D357" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E357">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7585,59 +7585,59 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D358" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E358">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E359">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F359">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D360" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E360">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7645,19 +7645,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D361" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E361">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,19 +7665,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D362" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E362">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7685,59 +7685,59 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D363" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E363">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D364" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E364">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F364">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E365">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7745,19 +7745,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D366" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E366">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E367">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,59 +7785,59 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E368">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F368">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D369" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F369">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E370">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7845,59 +7845,59 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D371" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E371">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E372">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F372">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D373" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E373">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7905,19 +7905,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D374" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E374">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,19 +7925,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D375" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E375">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7945,42 +7945,42 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D376" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E376">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E377">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F377">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7991,13 +7991,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D378" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E378">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8011,13 +8011,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D379" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E379">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D380" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E380">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8051,16 +8051,16 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D381" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E381">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8071,16 +8071,16 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D382" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F382">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8091,13 +8091,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D383" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E383">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8111,16 +8111,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D384" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E384">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8128,19 +8128,19 @@
         <v>401</v>
       </c>
       <c r="B385">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C385">
-        <v>5330</v>
+        <v>3416</v>
       </c>
       <c r="D385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E385">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F385">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8151,16 +8151,16 @@
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D386" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E386">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8171,16 +8171,16 @@
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D387" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E387">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F387">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8191,16 +8191,16 @@
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D388" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E388">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8211,16 +8211,16 @@
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D389" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F389">
-        <v>268</v>
+        <v>582</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8231,16 +8231,16 @@
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>5066</v>
+        <v>3416</v>
       </c>
       <c r="D390" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E390">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F390">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8251,16 +8251,16 @@
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D391" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E391">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8271,16 +8271,16 @@
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D392" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E392">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F392">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8291,16 +8291,16 @@
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D393" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E393">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8311,16 +8311,16 @@
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D394" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F394">
-        <v>268</v>
+        <v>582</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8331,16 +8331,16 @@
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>5066</v>
+        <v>3416</v>
       </c>
       <c r="D395" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E395">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F395">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8351,16 +8351,16 @@
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D396" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E396">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8371,16 +8371,16 @@
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D397" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E397">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F397">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8391,16 +8391,16 @@
         <v>11200</v>
       </c>
       <c r="C398">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D398" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E398">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8408,19 +8408,19 @@
         <v>415</v>
       </c>
       <c r="B399">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C399">
-        <v>268</v>
+        <v>3266</v>
       </c>
       <c r="D399" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F399">
-        <v>268</v>
+        <v>962</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,16 +8431,16 @@
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>3266</v>
+        <v>5570</v>
       </c>
       <c r="D400" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E400">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F400">
-        <v>862</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8451,13 +8451,13 @@
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D401" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E401">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D402" t="s">
         <v>22</v>
       </c>
       <c r="E402">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F402">
         <v>398</v>
@@ -8491,13 +8491,13 @@
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D403" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E403">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8511,13 +8511,13 @@
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D404" t="s">
         <v>22</v>
       </c>
       <c r="E404">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F404">
         <v>398</v>
@@ -8531,13 +8531,13 @@
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D405" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E405">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8551,13 +8551,13 @@
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D406" t="s">
         <v>22</v>
       </c>
       <c r="E406">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F406">
         <v>398</v>
@@ -8571,13 +8571,13 @@
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D407" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E407">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8585,19 +8585,19 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D408" t="s">
         <v>22</v>
       </c>
       <c r="E408">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F408">
         <v>398</v>
@@ -8611,13 +8611,13 @@
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D409" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E409">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -8631,13 +8631,13 @@
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
       </c>
       <c r="E410">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F410">
         <v>398</v>
@@ -8651,13 +8651,13 @@
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E411">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -8671,13 +8671,13 @@
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D412" t="s">
         <v>22</v>
       </c>
       <c r="E412">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F412">
         <v>398</v>
@@ -8691,13 +8691,13 @@
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E413">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -8711,13 +8711,13 @@
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D414" t="s">
         <v>22</v>
       </c>
       <c r="E414">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F414">
         <v>398</v>
@@ -8731,13 +8731,13 @@
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D415" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E415">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -8751,13 +8751,13 @@
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
       </c>
       <c r="E416">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F416">
         <v>398</v>
@@ -8771,13 +8771,13 @@
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E417">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D418" t="s">
         <v>22</v>
       </c>
       <c r="E418">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F418">
         <v>398</v>
@@ -8811,13 +8811,13 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D419" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E419">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8831,13 +8831,13 @@
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D420" t="s">
         <v>22</v>
       </c>
       <c r="E420">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F420">
         <v>398</v>
@@ -8851,13 +8851,13 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D421" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E421">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8871,13 +8871,13 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
       </c>
       <c r="E422">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F422">
         <v>398</v>
@@ -8885,19 +8885,19 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D423" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E423">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -8905,19 +8905,19 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D424" t="s">
         <v>22</v>
       </c>
       <c r="E424">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F424">
         <v>398</v>
@@ -8925,42 +8925,22 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B425">
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D425" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E425">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="1">
-        <v>446</v>
-      </c>
-      <c r="B426">
-        <v>9400</v>
-      </c>
-      <c r="C426">
-        <v>2802</v>
-      </c>
-      <c r="D426" t="s">
-        <v>22</v>
-      </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426">
-        <v>2802</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="23">
   <si>
     <t>原料长度</t>
   </si>
@@ -70,7 +70,7 @@
     <t>[4902, 6134]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[268]</t>
   </si>
   <si>
     <t>[2718, 6134]</t>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F425"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +985,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>12000</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>12000</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>12000</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>12000</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>12000</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>12000</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>12000</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>12000</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>12000</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>12000</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>12000</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>12000</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>12000</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>12000</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>12000</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>12000</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>12000</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>12000</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>12000</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>12000</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>12000</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>12000</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>12000</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>12000</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>12000</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>12000</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>12000</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>12000</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>12000</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>12000</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>12000</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>12000</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>12000</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>12000</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>12000</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>12000</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>12000</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>12000</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>12000</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>12000</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>12000</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>12000</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>12000</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>12000</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>12000</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>12000</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>12000</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>12000</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>12000</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>12000</v>
@@ -2045,59 +2045,59 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C81">
-        <v>5598</v>
+        <v>572</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F82">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2105,39 +2105,39 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2145,19 +2145,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2165,39 +2165,39 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F87">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2205,39 +2205,39 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2245,19 +2245,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2265,39 +2265,39 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F92">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2305,59 +2305,59 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F95">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2365,39 +2365,39 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2405,19 +2405,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2425,39 +2425,39 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F100">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2465,39 +2465,39 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2505,19 +2505,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2525,39 +2525,39 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F105">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2565,59 +2565,59 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F108">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2625,39 +2625,39 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2665,19 +2665,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2685,39 +2685,39 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F113">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2725,39 +2725,39 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E116">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2765,19 +2765,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E117">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2785,39 +2785,39 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F118">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2825,59 +2825,59 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F121">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2885,39 +2885,39 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2925,19 +2925,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2945,39 +2945,39 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F126">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2985,39 +2985,39 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E129">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3025,19 +3025,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3045,39 +3045,39 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F131">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,59 +3085,59 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E133">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F134">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3145,39 +3145,39 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,19 +3185,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3205,39 +3205,39 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F139">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,39 +3245,39 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E142">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3285,19 +3285,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3305,39 +3305,39 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F144">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3345,59 +3345,59 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B146">
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B147">
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F147">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3405,39 +3405,39 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,19 +3445,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3465,39 +3465,39 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F152">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3505,39 +3505,39 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E154">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3545,19 +3545,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E156">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3565,39 +3565,39 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F157">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,59 +3605,59 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F160">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3665,39 +3665,39 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3705,19 +3705,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3725,39 +3725,39 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F165">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,39 +3765,39 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3805,19 +3805,19 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3825,39 +3825,39 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F170">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E171">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,59 +3865,59 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E172">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F173">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3925,39 +3925,39 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E177">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3985,39 +3985,39 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F178">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,39 +4025,39 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4065,19 +4065,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E182">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4085,39 +4085,39 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F183">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E184">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4125,59 +4125,59 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F186">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4211,13 +4211,13 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E190">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4251,16 +4251,16 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E191">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F191">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4271,13 +4271,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4291,16 +4291,16 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4311,13 +4311,13 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4331,13 +4331,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E195">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4351,16 +4351,16 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F196">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4371,13 +4371,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D197" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4391,16 +4391,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E198">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4411,16 +4411,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F199">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4431,13 +4431,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4451,33 +4451,33 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4485,19 +4485,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4505,39 +4505,39 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F204">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B206">
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4571,13 +4571,13 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E208">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F209">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4631,13 +4631,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E210">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4651,16 +4651,16 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E211">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4671,33 +4671,33 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F212">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B213">
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4705,39 +4705,39 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E214">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4745,19 +4745,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4765,39 +4765,39 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F217">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,39 +4805,39 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D219" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E219">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4845,19 +4845,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E221">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4865,39 +4865,39 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F222">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E223">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,59 +4905,59 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E224">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F225">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4965,39 +4965,39 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5005,19 +5005,19 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5025,39 +5025,39 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F230">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,39 +5065,39 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D232" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E233">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5105,19 +5105,19 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5125,39 +5125,39 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F235">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,59 +5165,59 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E237">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F238">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E239">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5225,39 +5225,39 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5265,19 +5265,19 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5285,39 +5285,39 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E243">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F243">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,39 +5325,39 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5365,19 +5365,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5385,39 +5385,39 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F248">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E249">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,59 +5425,59 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E250">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F251">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5485,39 +5485,39 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D253" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E254">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5525,19 +5525,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E255">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5545,39 +5545,39 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D256" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F256">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,39 +5585,39 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5625,19 +5625,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E260">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5645,39 +5645,39 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F261">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D262" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E262">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,59 +5685,59 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E263">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F264">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E265">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5745,39 +5745,39 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5785,19 +5785,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5805,39 +5805,39 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D269" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E269">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F269">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E270">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,39 +5845,39 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D271" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D272" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E272">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5885,19 +5885,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E273">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5905,39 +5905,39 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D274" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F274">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D275" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E275">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,59 +5945,59 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E276">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F277">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6005,39 +6005,39 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D280" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E280">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6045,19 +6045,19 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E281">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6065,39 +6065,39 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D282" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E282">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F282">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E283">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,39 +6105,39 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D284" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E284">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D285" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E285">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6145,19 +6145,19 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E286">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6165,39 +6165,39 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F287">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E288">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,59 +6205,59 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E289">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E290">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F290">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E291">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6265,39 +6265,39 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D292" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E292">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E293">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6305,19 +6305,19 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D294" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E294">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6325,39 +6325,39 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D295" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E295">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F295">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E296">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,39 +6365,39 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E297">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E298">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6405,19 +6405,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E299">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6425,39 +6425,39 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D300" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F300">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E301">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,59 +6465,59 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E302">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E303">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F303">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E304">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6525,39 +6525,39 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D305" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E306">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6565,19 +6565,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E307">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6585,39 +6585,39 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E308">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F308">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E309">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,39 +6625,39 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D310" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E310">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D311" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E311">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6665,19 +6665,19 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E312">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6685,39 +6685,39 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D313" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F313">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E314">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,79 +6725,79 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E315">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E316">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F316">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B317">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C317">
-        <v>4216</v>
+        <v>304</v>
       </c>
       <c r="D317" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E317">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D318" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E318">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6805,19 +6805,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E319">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6825,59 +6825,59 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D320" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E320">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D321" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E321">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F321">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D322" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,19 +6885,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D323" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6905,19 +6905,19 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6925,59 +6925,59 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E325">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D326" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F326">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D327" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D328" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7005,59 +7005,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B329">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C329">
-        <v>304</v>
+        <v>1232</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F329">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E331">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7065,59 +7065,59 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E332">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F332">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E333">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E335">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,19 +7145,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7165,59 +7165,59 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E337">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F337">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E338">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E339">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7225,19 +7225,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E340">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E341">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,59 +7265,59 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F342">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D343" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E344">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7325,59 +7325,59 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E345">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F345">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E346">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E347">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E348">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,19 +7405,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E349">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7425,59 +7425,59 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E350">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F350">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E351">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E352">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7485,19 +7485,19 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E353">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E354">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,59 +7525,59 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D355" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F355">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E356">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7585,59 +7585,59 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E358">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F358">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E359">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E360">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7645,19 +7645,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E361">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,19 +7665,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E362">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7685,59 +7685,59 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D363" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E363">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F363">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E364">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7745,19 +7745,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E366">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D367" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E367">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,59 +7785,59 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D368" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F368">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D369" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E369">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D370" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E370">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7845,59 +7845,59 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D371" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F371">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D372" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E372">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E373">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7905,19 +7905,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D374" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E374">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,19 +7925,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D375" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E375">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7945,59 +7945,59 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D376" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E376">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F376">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E377">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D378" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E378">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8005,19 +8005,19 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B379">
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E379">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8025,19 +8025,19 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B380">
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D380" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E380">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8045,59 +8045,59 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B381">
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F381">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B382">
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D382" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E382">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B383">
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D383" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E383">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8105,841 +8105,861 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B384">
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E384">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F384">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B385">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C385">
-        <v>3416</v>
+        <v>5330</v>
       </c>
       <c r="D385" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E385">
-        <v>3416</v>
+        <v>4484</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B386">
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>2348</v>
+        <v>3416</v>
       </c>
       <c r="D386" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E386">
-        <v>2304</v>
+        <v>3416</v>
       </c>
       <c r="F386">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>1236</v>
+        <v>2348</v>
       </c>
       <c r="D387" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E387">
-        <v>1236</v>
+        <v>2304</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>168</v>
+        <v>1236</v>
       </c>
       <c r="D388" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="F388">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>5066</v>
+        <v>168</v>
       </c>
       <c r="D389" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E389">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>582</v>
+        <v>168</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>3416</v>
+        <v>5066</v>
       </c>
       <c r="D390" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E390">
-        <v>3416</v>
+        <v>4484</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>2348</v>
+        <v>3416</v>
       </c>
       <c r="D391" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E391">
-        <v>2304</v>
+        <v>3416</v>
       </c>
       <c r="F391">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>1236</v>
+        <v>2348</v>
       </c>
       <c r="D392" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E392">
-        <v>1236</v>
+        <v>2304</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>168</v>
+        <v>1236</v>
       </c>
       <c r="D393" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="F393">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>5066</v>
+        <v>168</v>
       </c>
       <c r="D394" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E394">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>582</v>
+        <v>168</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>3416</v>
+        <v>5066</v>
       </c>
       <c r="D395" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E395">
-        <v>3416</v>
+        <v>4484</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>2348</v>
+        <v>3416</v>
       </c>
       <c r="D396" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E396">
-        <v>2304</v>
+        <v>3416</v>
       </c>
       <c r="F396">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>1236</v>
+        <v>2348</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E397">
-        <v>1236</v>
+        <v>2304</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B398">
         <v>11200</v>
       </c>
       <c r="C398">
-        <v>168</v>
+        <v>1236</v>
       </c>
       <c r="D398" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="F398">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B399">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C399">
-        <v>3266</v>
+        <v>168</v>
       </c>
       <c r="D399" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E399">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F399">
-        <v>962</v>
+        <v>168</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B400">
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>5570</v>
+        <v>3266</v>
       </c>
       <c r="D400" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E400">
-        <v>4484</v>
+        <v>2304</v>
       </c>
       <c r="F400">
-        <v>1086</v>
+        <v>962</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B401">
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>1616</v>
+        <v>5570</v>
       </c>
       <c r="D401" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E401">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B402">
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D402" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E402">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F402">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B403">
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D403" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E403">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B404">
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D404" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E404">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F404">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B405">
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D405" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E405">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B406">
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D406" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E406">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F406">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B407">
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D407" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E407">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F407">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D408" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E408">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F408">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B409">
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D409" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E409">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B410">
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D410" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E410">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F410">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B411">
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D411" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E411">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B412">
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D412" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E412">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F412">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B413">
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D413" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E413">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F413">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B414">
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D414" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E414">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F414">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B415">
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D415" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E415">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B416">
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D416" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E416">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F416">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B417">
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D417" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E417">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F417">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B418">
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D418" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E418">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F418">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B419">
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D419" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E419">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B420">
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D420" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E420">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F420">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B421">
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D421" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E421">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B422">
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D422" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E422">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F422">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D423" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E423">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D424" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E424">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F424">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B425">
         <v>9400</v>
       </c>
       <c r="C425">
+        <v>4882</v>
+      </c>
+      <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425">
+        <v>4484</v>
+      </c>
+      <c r="F425">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1">
+        <v>439</v>
+      </c>
+      <c r="B426">
+        <v>9400</v>
+      </c>
+      <c r="C426">
         <v>1616</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D426" t="s">
         <v>8</v>
       </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425">
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
         <v>1616</v>
       </c>
     </row>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>12000</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>12000</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>12000</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>12000</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>12000</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>12000</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>12000</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>12000</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>12000</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>12000</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>12000</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>12000</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>12000</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>12000</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>12000</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>12000</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>12000</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>12000</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>12000</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>12000</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>12000</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12000</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>12000</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>12000</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>12000</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>12000</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>12000</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>12000</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>12000</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>12000</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>12000</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>12000</v>
@@ -1265,42 +1265,42 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C42">
-        <v>5598</v>
+        <v>572</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F43">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1311,13 +1311,13 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1331,16 +1331,16 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1351,13 +1351,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1371,13 +1371,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F48">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1411,13 +1411,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1451,13 +1451,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1485,39 +1485,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F53">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1525,59 +1525,59 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F56">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1585,39 +1585,39 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1625,19 +1625,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1645,39 +1645,39 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F61">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1685,39 +1685,39 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1745,39 +1745,39 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F66">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1785,79 +1785,79 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F69">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C70">
-        <v>4216</v>
+        <v>304</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1911,16 +1911,16 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F74">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1931,13 +1931,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1951,13 +1951,13 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1991,16 +1991,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2011,16 +2011,16 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F79">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2031,13 +2031,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C81">
-        <v>572</v>
+        <v>1500</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F81">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2071,13 +2071,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2091,16 +2091,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2111,16 +2111,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F84">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2131,13 +2131,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2171,13 +2171,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F89">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2231,13 +2231,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2271,13 +2271,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2291,13 +2291,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F94">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2331,13 +2331,13 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2345,59 +2345,59 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F97">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2405,39 +2405,39 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2445,19 +2445,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2465,39 +2465,39 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F102">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E104">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2531,13 +2531,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2545,19 +2545,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2565,39 +2565,39 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F107">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2605,59 +2605,59 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F110">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2665,39 +2665,39 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2731,16 +2731,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F115">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2751,13 +2751,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2771,16 +2771,16 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2791,13 +2791,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2811,13 +2811,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2831,33 +2831,33 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F120">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2865,59 +2865,59 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F123">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2925,39 +2925,39 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2965,19 +2965,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2985,39 +2985,39 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F128">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3025,39 +3025,39 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3065,19 +3065,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E132">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,39 +3085,39 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F133">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3125,59 +3125,59 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F136">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,39 +3185,39 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3225,19 +3225,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,39 +3245,39 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F141">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3285,39 +3285,39 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3325,19 +3325,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E145">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3351,16 +3351,16 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F146">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3371,13 +3371,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E147">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3391,53 +3391,53 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E148">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B149">
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F149">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B150">
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,39 +3445,39 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3485,19 +3485,19 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B153">
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3505,39 +3505,39 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E154">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F154">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B155">
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3545,39 +3545,39 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B156">
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E156">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B157">
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E157">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3585,19 +3585,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B158">
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3605,39 +3605,39 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B159">
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F159">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B160">
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E160">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3645,59 +3645,59 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B161">
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E161">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B162">
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F162">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B163">
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3705,39 +3705,39 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B164">
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B165">
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B166">
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3765,39 +3765,39 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B167">
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F167">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B168">
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3805,39 +3805,39 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169">
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B170">
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E170">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3845,19 +3845,19 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B171">
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3865,39 +3865,39 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B172">
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F172">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B173">
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E173">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3905,59 +3905,59 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B174">
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B175">
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F175">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B176">
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3965,39 +3965,39 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B177">
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B178">
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4005,19 +4005,19 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B179">
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4025,39 +4025,39 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B180">
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F180">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B181">
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E181">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4065,39 +4065,39 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E182">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E183">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E184">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4125,39 +4125,39 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F185">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E186">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4165,59 +4165,59 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E187">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F188">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4225,39 +4225,39 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4285,39 +4285,39 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F193">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4325,39 +4325,39 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B195">
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B196">
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4365,19 +4365,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B197">
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E197">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4385,39 +4385,39 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B198">
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F198">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B199">
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4425,59 +4425,59 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B200">
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E200">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B201">
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F201">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4485,39 +4485,39 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4545,39 +4545,39 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B206">
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F206">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B207">
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4585,39 +4585,39 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B208">
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B209">
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B210">
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4645,39 +4645,39 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B211">
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F211">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B212">
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4685,59 +4685,59 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B213">
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E213">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B214">
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F214">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4745,39 +4745,39 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4785,19 +4785,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,39 +4805,39 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D219" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F219">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D220" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4845,39 +4845,39 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D221" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4885,19 +4885,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E223">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,39 +4905,39 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F224">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D225" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4945,59 +4945,59 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D226" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E226">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F227">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5005,39 +5005,39 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,39 +5065,39 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F232">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5105,39 +5105,39 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E235">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5145,19 +5145,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,39 +5165,39 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F237">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5205,59 +5205,59 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D239" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E239">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F240">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5265,39 +5265,39 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5305,19 +5305,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,39 +5325,39 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E245">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F245">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5365,39 +5365,39 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5405,19 +5405,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,39 +5425,39 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F250">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5465,59 +5465,59 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E252">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F253">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5525,39 +5525,39 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5565,19 +5565,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,39 +5585,39 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F258">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5625,39 +5625,39 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B260">
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D260" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B261">
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5665,19 +5665,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B262">
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,39 +5685,39 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D263" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F263">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D264" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E264">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5725,59 +5725,59 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E265">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F266">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D267" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5785,39 +5785,39 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E269">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5825,19 +5825,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,39 +5845,39 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F271">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5885,39 +5885,39 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D273" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E273">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D274" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E275">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,39 +5945,39 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D276" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F276">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E277">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5985,59 +5985,59 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F279">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E280">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6045,39 +6045,39 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D281" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D282" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6085,19 +6085,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,39 +6105,39 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D284" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F284">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E285">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6145,39 +6145,39 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D286" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E287">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6185,19 +6185,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D288" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E288">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,39 +6205,39 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F289">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D290" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E290">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6245,59 +6245,59 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E291">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E292">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F292">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E293">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6305,39 +6305,39 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E295">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6345,19 +6345,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D296" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E296">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,39 +6365,39 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D297" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F297">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D298" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E298">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6405,39 +6405,39 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D299" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E299">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D300" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6445,19 +6445,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E301">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,39 +6465,39 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D302" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F302">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E303">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6505,59 +6505,59 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E304">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E305">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F305">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D306" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E306">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6565,39 +6565,39 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D307" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E307">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E308">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D309" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E309">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,39 +6625,39 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D310" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E310">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F310">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6665,39 +6665,39 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D312" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D313" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E313">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6705,19 +6705,19 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D314" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E314">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,39 +6725,39 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D315" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F315">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D316" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6765,27 +6765,27 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B317">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C317">
-        <v>304</v>
+        <v>964</v>
       </c>
       <c r="D317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E317">
         <v>0</v>
       </c>
       <c r="F317">
-        <v>304</v>
+        <v>964</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B318">
         <v>12000</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B319">
         <v>12000</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B320">
         <v>12000</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B321">
         <v>12000</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B322">
         <v>12000</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B323">
         <v>12000</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B324">
         <v>12000</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B325">
         <v>12000</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B326">
         <v>12000</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B327">
         <v>12000</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B328">
         <v>12000</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B329">
         <v>12000</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B330">
         <v>12000</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B331">
         <v>12000</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B332">
         <v>12000</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B333">
         <v>12000</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B334">
         <v>12000</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B335">
         <v>12000</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B336">
         <v>12000</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B337">
         <v>12000</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B338">
         <v>12000</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B339">
         <v>12000</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B340">
         <v>12000</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B341">
         <v>12000</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B342">
         <v>12000</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B343">
         <v>12000</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B344">
         <v>12000</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B345">
         <v>12000</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B346">
         <v>12000</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B347">
         <v>12000</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B348">
         <v>12000</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B349">
         <v>12000</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B350">
         <v>12000</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B351">
         <v>12000</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B352">
         <v>12000</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B353">
         <v>12000</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B354">
         <v>12000</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B355">
         <v>12000</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B356">
         <v>12000</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B357">
         <v>12000</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B358">
         <v>12000</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B359">
         <v>12000</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B360">
         <v>12000</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B361">
         <v>12000</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B362">
         <v>12000</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B363">
         <v>12000</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B364">
         <v>12000</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B365">
         <v>12000</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B366">
         <v>12000</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B367">
         <v>12000</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B368">
         <v>12000</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B369">
         <v>12000</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B370">
         <v>12000</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B371">
         <v>12000</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B372">
         <v>12000</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B373">
         <v>12000</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B374">
         <v>12000</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B375">
         <v>12000</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B376">
         <v>12000</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B377">
         <v>12000</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B378">
         <v>12000</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B379">
         <v>12000</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B380">
         <v>12000</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B381">
         <v>12000</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B382">
         <v>12000</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B383">
         <v>12000</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B384">
         <v>12000</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B385">
         <v>12000</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B386">
         <v>11200</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B387">
         <v>11200</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B388">
         <v>11200</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B389">
         <v>11200</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B390">
         <v>11200</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B391">
         <v>11200</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B392">
         <v>11200</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B393">
         <v>11200</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B394">
         <v>11200</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B395">
         <v>11200</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B396">
         <v>11200</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B397">
         <v>11200</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B398">
         <v>11200</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B399">
         <v>11200</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B400">
         <v>9400</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B401">
         <v>9400</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B402">
         <v>9400</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B403">
         <v>9400</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B404">
         <v>9400</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B405">
         <v>9400</v>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B406">
         <v>9400</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B407">
         <v>9400</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B408">
         <v>9400</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B409">
         <v>9400</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B410">
         <v>9400</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B411">
         <v>9400</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B412">
         <v>9400</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B413">
         <v>9400</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B414">
         <v>9400</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B415">
         <v>9400</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B416">
         <v>9400</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B417">
         <v>9400</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B418">
         <v>9400</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B419">
         <v>9400</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B420">
         <v>9400</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B421">
         <v>9400</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B422">
         <v>9400</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B423">
         <v>9400</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B424">
         <v>9400</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B425">
         <v>9400</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="1">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B426">
         <v>9400</v>

--- a/某一次的原料切割方式——new.xlsx
+++ b/某一次的原料切割方式——new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="23">
   <si>
     <t>原料长度</t>
   </si>
@@ -40,49 +40,49 @@
     <t>[536, 6134]</t>
   </si>
   <si>
-    <t>[1650, 6134]</t>
+    <t>[1550, 6134]</t>
   </si>
   <si>
-    <t>[1918, 6134]</t>
+    <t>[1818, 6134]</t>
   </si>
   <si>
-    <t>[2186, 6134]</t>
+    <t>[2086, 6134]</t>
   </si>
   <si>
-    <t>[2454, 6134]</t>
+    <t>[2354, 6134]</t>
   </si>
   <si>
-    <t>[2722, 6134]</t>
+    <t>[2622, 6134]</t>
   </si>
   <si>
-    <t>[3830, 6134]</t>
+    <t>[3730, 6134]</t>
   </si>
   <si>
-    <t>[4098, 6134]</t>
+    <t>[3998, 6134]</t>
   </si>
   <si>
-    <t>[4366, 6134]</t>
+    <t>[4266, 6134]</t>
   </si>
   <si>
-    <t>[4634, 6134]</t>
+    <t>[4534, 6134]</t>
   </si>
   <si>
-    <t>[4902, 6134]</t>
+    <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[268]</t>
+    <t>[536]</t>
   </si>
   <si>
-    <t>[2718, 6134]</t>
+    <t>[2618, 6134]</t>
   </si>
   <si>
-    <t>[4898, 6134]</t>
+    <t>[4798, 6134]</t>
   </si>
   <si>
-    <t>[3830]</t>
+    <t>[3730]</t>
   </si>
   <si>
-    <t>[4518]</t>
+    <t>[464, 6134]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,27 +517,27 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F4">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -545,19 +545,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -565,19 +565,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -585,19 +585,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -605,19 +605,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3144</v>
+        <v>3244</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F9">
         <v>840</v>
@@ -625,19 +625,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -645,19 +645,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -665,19 +665,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -685,19 +685,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -720,12 +720,12 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>12000</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>12000</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -777,27 +777,27 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F17">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -805,19 +805,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -825,19 +825,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -845,19 +845,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3144</v>
+        <v>3244</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F22">
         <v>840</v>
@@ -885,19 +885,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -905,19 +905,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -945,19 +945,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -980,12 +980,12 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>12000</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>12000</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>12000</v>
@@ -1037,27 +1037,27 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F30">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1065,19 +1065,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1085,19 +1085,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="E34">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1125,19 +1125,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3144</v>
+        <v>3244</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F35">
         <v>840</v>
@@ -1145,19 +1145,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1165,19 +1165,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1240,12 +1240,12 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>12000</v>
@@ -1265,59 +1265,59 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C42">
-        <v>572</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F42">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1325,39 +1325,39 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F45">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1385,39 +1385,39 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1425,39 +1425,39 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F50">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1465,19 +1465,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1485,39 +1485,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1525,59 +1525,59 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F55">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F58">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1611,13 +1611,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1671,13 +1671,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F63">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1711,13 +1711,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1725,19 +1725,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1745,39 +1745,39 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1785,79 +1785,79 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F68">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C70">
-        <v>304</v>
+        <v>4316</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F70">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1885,59 +1885,59 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F73">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1945,19 +1945,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1985,59 +1985,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F78">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2045,19 +2045,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2065,59 +2065,59 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F83">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2125,19 +2125,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2145,59 +2145,59 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F86">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E88">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2225,19 +2225,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F91">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2271,16 +2271,16 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2291,13 +2291,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2331,53 +2331,53 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F96">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2385,19 +2385,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2405,59 +2405,59 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F99">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2465,19 +2465,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2485,19 +2485,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2505,42 +2505,42 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E104">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F104">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E105">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2551,13 +2551,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2571,13 +2571,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2611,16 +2611,16 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F109">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2631,13 +2631,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2671,16 +2671,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F112">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2691,16 +2691,16 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2711,13 +2711,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2725,19 +2725,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2745,19 +2745,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E116">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2765,59 +2765,59 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F117">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2825,19 +2825,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2845,59 +2845,59 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F122">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2905,19 +2905,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2925,59 +2925,59 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F125">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2985,19 +2985,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E128">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3005,19 +3005,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3025,59 +3025,59 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E130">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F130">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B131">
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E131">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B132">
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133">
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3105,59 +3105,59 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134">
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135">
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F135">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136">
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B137">
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3185,59 +3185,59 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138">
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F138">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139">
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140">
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E140">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3245,19 +3245,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141">
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E141">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3265,19 +3265,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142">
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3285,59 +3285,59 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143">
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F143">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144">
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145">
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3351,13 +3351,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3371,36 +3371,36 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148">
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F148">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3411,13 +3411,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3445,22 +3445,22 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151">
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F151">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3471,16 +3471,16 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3491,13 +3491,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E153">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E156">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F156">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3571,16 +3571,16 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3591,13 +3591,13 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D158" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3611,13 +3611,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3628,19 +3628,19 @@
         <v>169</v>
       </c>
       <c r="B160">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C160">
-        <v>1232</v>
+        <v>210</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3651,16 +3651,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F161">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3671,13 +3671,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3691,16 +3691,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3711,16 +3711,16 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F164">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3731,13 +3731,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3771,13 +3771,13 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3811,16 +3811,16 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F169">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3831,13 +3831,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3851,13 +3851,13 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3871,13 +3871,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3891,16 +3891,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E173">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3911,16 +3911,16 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F174">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3931,13 +3931,13 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E175">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3971,16 +3971,16 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F177">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3991,13 +3991,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E178">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4011,13 +4011,13 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4051,53 +4051,53 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B182">
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F182">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B183">
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B184">
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4125,19 +4125,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185">
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4145,59 +4145,59 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B186">
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B187">
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F187">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B188">
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E188">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4205,59 +4205,59 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B189">
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B190">
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F190">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B191">
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E191">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192">
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4285,19 +4285,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B193">
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4305,59 +4305,59 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B194">
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B195">
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E195">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F195">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B196">
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E196">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4365,19 +4365,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B197">
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4385,19 +4385,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B198">
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E198">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4405,59 +4405,59 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B199">
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E199">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B200">
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F200">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B201">
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4465,59 +4465,59 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B202">
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B203">
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F203">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B204">
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B205">
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4571,16 +4571,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4591,16 +4591,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F208">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4611,13 +4611,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E210">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4651,13 +4651,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E211">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4671,16 +4671,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E212">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4691,16 +4691,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F213">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4711,13 +4711,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4725,59 +4725,59 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B215">
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B216">
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F216">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B217">
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4785,19 +4785,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B218">
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4805,19 +4805,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B219">
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4825,59 +4825,59 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B220">
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B221">
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F221">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B222">
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E222">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4885,19 +4885,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B223">
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4905,19 +4905,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B224">
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4925,59 +4925,59 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B225">
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E225">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B226">
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F226">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B227">
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4985,59 +4985,59 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B228">
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B229">
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E229">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F229">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B230">
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5045,19 +5045,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B231">
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B232">
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5085,59 +5085,59 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B233">
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B234">
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F234">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B235">
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5145,19 +5145,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B236">
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5165,19 +5165,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B237">
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5185,59 +5185,59 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B238">
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B239">
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F239">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B240">
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E240">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5245,59 +5245,59 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B241">
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B242">
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F242">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B243">
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5305,19 +5305,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B244">
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5325,19 +5325,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B245">
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E245">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5345,59 +5345,59 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B246">
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E246">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B247">
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F247">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B248">
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E248">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5405,19 +5405,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B249">
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E249">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,19 +5425,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B250">
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E250">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5445,59 +5445,59 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B251">
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E251">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B252">
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F252">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B253">
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5505,59 +5505,59 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B254">
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E254">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B255">
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E255">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F255">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B256">
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E256">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5565,19 +5565,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B257">
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E257">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5585,19 +5585,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B258">
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E258">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5605,22 +5605,22 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B259">
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E259">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5631,16 +5631,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E260">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F260">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5651,13 +5651,13 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E261">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5671,13 +5671,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E262">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5685,19 +5685,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B263">
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5705,59 +5705,59 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B264">
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E264">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B265">
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F265">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B266">
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D266" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5765,59 +5765,59 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B267">
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E267">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B268">
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F268">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B269">
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E269">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5825,19 +5825,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B270">
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D270" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E270">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5845,19 +5845,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B271">
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D271" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E271">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5865,59 +5865,59 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B272">
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E272">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B273">
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E273">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F273">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B274">
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E274">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5925,19 +5925,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B275">
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E275">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B276">
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D276" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E276">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5965,59 +5965,59 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B277">
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E277">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B278">
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F278">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B279">
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E279">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6025,59 +6025,59 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B280">
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B281">
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E281">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F281">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B282">
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E282">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6085,19 +6085,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B283">
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E283">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6105,19 +6105,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B284">
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E284">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6125,59 +6125,59 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B285">
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E285">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B286">
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D286" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E286">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F286">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B287">
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E287">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6185,19 +6185,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B288">
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D288" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E288">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6205,19 +6205,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B289">
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E289">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6225,59 +6225,59 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B290">
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D290" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E290">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B291">
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F291">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B292">
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D292" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E292">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6285,59 +6285,59 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B293">
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E293">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B294">
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E294">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F294">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B295">
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E295">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6345,19 +6345,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B296">
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E296">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6365,19 +6365,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B297">
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E297">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6385,59 +6385,59 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B298">
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E298">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B299">
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D299" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E299">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F299">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B300">
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E300">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6445,19 +6445,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B301">
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D301" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E301">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6465,19 +6465,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B302">
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E302">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6485,59 +6485,59 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B303">
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E303">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B304">
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D304" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F304">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B305">
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D305" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E305">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6545,59 +6545,59 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B306">
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E306">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B307">
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E307">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F307">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B308">
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D308" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E308">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B309">
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D309" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E309">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6625,19 +6625,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B310">
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E310">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6645,59 +6645,59 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B311">
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E311">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B312">
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D312" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E312">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F312">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B313">
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D313" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E313">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6705,19 +6705,19 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B314">
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D314" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E314">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6725,19 +6725,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B315">
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E315">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6745,59 +6745,59 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B316">
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E316">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B317">
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F317">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B318">
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E318">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6805,59 +6805,59 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B319">
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E319">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B320">
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E320">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F320">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B321">
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E321">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6865,19 +6865,19 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B322">
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D322" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E322">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6885,19 +6885,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B323">
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E323">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6905,59 +6905,59 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B324">
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E324">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B325">
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E325">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F325">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B326">
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E326">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6965,19 +6965,19 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B327">
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E327">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B328">
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E328">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7005,59 +7005,59 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B329">
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E329">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B330">
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F330">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B331">
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7065,59 +7065,59 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B332">
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E332">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B333">
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F333">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B334">
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E334">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7125,19 +7125,19 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B335">
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D335" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E335">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7145,19 +7145,19 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B336">
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D336" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E336">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7165,59 +7165,59 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="1">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B337">
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E337">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B338">
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D338" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F338">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B339">
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E339">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7225,19 +7225,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B340">
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D340" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E340">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B341">
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E341">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,59 +7265,59 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B342">
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E342">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B343">
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F343">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B344">
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D344" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7325,59 +7325,59 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="1">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B345">
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D345" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E345">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B346">
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E346">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F346">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B347">
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D347" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E347">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B348">
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D348" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E348">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7405,19 +7405,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B349">
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E349">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7425,59 +7425,59 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B350">
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E350">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B351">
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D351" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E351">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F351">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B352">
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E352">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7485,19 +7485,19 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B353">
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D353" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E353">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B354">
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D354" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E354">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7525,59 +7525,59 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B355">
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E355">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B356">
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D356" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F356">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B357">
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D357" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E357">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7585,59 +7585,59 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B358">
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D358" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E358">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B359">
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E359">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F359">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B360">
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D360" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E360">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7645,19 +7645,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B361">
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D361" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E361">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7665,19 +7665,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B362">
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D362" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E362">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7685,59 +7685,59 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B363">
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D363" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E363">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B364">
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D364" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E364">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F364">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B365">
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E365">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7745,19 +7745,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B366">
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D366" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E366">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7765,19 +7765,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B367">
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E367">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7785,59 +7785,59 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B368">
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E368">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F368">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B369">
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D369" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F369">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B370">
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E370">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7845,59 +7845,59 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B371">
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D371" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E371">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B372">
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E372">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F372">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B373">
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D373" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E373">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7905,19 +7905,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B374">
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D374" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E374">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7925,19 +7925,19 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B375">
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D375" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E375">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7945,59 +7945,59 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B376">
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D376" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E376">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B377">
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E377">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F377">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B378">
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D378" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E378">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8005,19 +8005,19 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B379">
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D379" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E379">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8025,19 +8025,19 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B380">
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D380" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E380">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8045,59 +8045,59 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B381">
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D381" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E381">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B382">
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D382" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F382">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B383">
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D383" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E383">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8105,379 +8105,379 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B384">
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D384" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E384">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B385">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C385">
-        <v>5330</v>
+        <v>3516</v>
       </c>
       <c r="D385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E385">
-        <v>4484</v>
+        <v>3516</v>
       </c>
       <c r="F385">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B386">
         <v>11200</v>
       </c>
       <c r="C386">
-        <v>3416</v>
+        <v>2448</v>
       </c>
       <c r="D386" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E386">
-        <v>3416</v>
+        <v>2404</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B387">
         <v>11200</v>
       </c>
       <c r="C387">
-        <v>2348</v>
+        <v>1336</v>
       </c>
       <c r="D387" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E387">
-        <v>2304</v>
+        <v>1336</v>
       </c>
       <c r="F387">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B388">
         <v>11200</v>
       </c>
       <c r="C388">
-        <v>1236</v>
+        <v>268</v>
       </c>
       <c r="D388" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E388">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B389">
         <v>11200</v>
       </c>
       <c r="C389">
-        <v>168</v>
+        <v>5066</v>
       </c>
       <c r="D389" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F389">
-        <v>168</v>
+        <v>482</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B390">
         <v>11200</v>
       </c>
       <c r="C390">
-        <v>5066</v>
+        <v>3516</v>
       </c>
       <c r="D390" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E390">
-        <v>4484</v>
+        <v>3516</v>
       </c>
       <c r="F390">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B391">
         <v>11200</v>
       </c>
       <c r="C391">
-        <v>3416</v>
+        <v>2448</v>
       </c>
       <c r="D391" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E391">
-        <v>3416</v>
+        <v>2404</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B392">
         <v>11200</v>
       </c>
       <c r="C392">
-        <v>2348</v>
+        <v>1336</v>
       </c>
       <c r="D392" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E392">
-        <v>2304</v>
+        <v>1336</v>
       </c>
       <c r="F392">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B393">
         <v>11200</v>
       </c>
       <c r="C393">
-        <v>1236</v>
+        <v>268</v>
       </c>
       <c r="D393" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E393">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B394">
         <v>11200</v>
       </c>
       <c r="C394">
-        <v>168</v>
+        <v>5066</v>
       </c>
       <c r="D394" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F394">
-        <v>168</v>
+        <v>482</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B395">
         <v>11200</v>
       </c>
       <c r="C395">
-        <v>5066</v>
+        <v>3516</v>
       </c>
       <c r="D395" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E395">
-        <v>4484</v>
+        <v>3516</v>
       </c>
       <c r="F395">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B396">
         <v>11200</v>
       </c>
       <c r="C396">
-        <v>3416</v>
+        <v>2448</v>
       </c>
       <c r="D396" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E396">
-        <v>3416</v>
+        <v>2404</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B397">
         <v>11200</v>
       </c>
       <c r="C397">
-        <v>2348</v>
+        <v>1336</v>
       </c>
       <c r="D397" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E397">
-        <v>2304</v>
+        <v>1336</v>
       </c>
       <c r="F397">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B398">
         <v>11200</v>
       </c>
       <c r="C398">
-        <v>1236</v>
+        <v>268</v>
       </c>
       <c r="D398" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E398">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B399">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C399">
-        <v>168</v>
+        <v>3266</v>
       </c>
       <c r="D399" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F399">
-        <v>168</v>
+        <v>862</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B400">
         <v>9400</v>
       </c>
       <c r="C400">
-        <v>3266</v>
+        <v>5670</v>
       </c>
       <c r="D400" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E400">
-        <v>2304</v>
+        <v>5670</v>
       </c>
       <c r="F400">
-        <v>962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B401">
         <v>9400</v>
       </c>
       <c r="C401">
-        <v>5570</v>
+        <v>2802</v>
       </c>
       <c r="D401" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E401">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F401">
-        <v>1086</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B402">
         <v>9400</v>
       </c>
       <c r="C402">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D402" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E402">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8485,19 +8485,19 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B403">
         <v>9400</v>
       </c>
       <c r="C403">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D403" t="s">
         <v>22</v>
       </c>
       <c r="E403">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F403">
         <v>398</v>
@@ -8505,19 +8505,19 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B404">
         <v>9400</v>
       </c>
       <c r="C404">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D404" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E404">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8525,19 +8525,19 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B405">
         <v>9400</v>
       </c>
       <c r="C405">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D405" t="s">
         <v>22</v>
       </c>
       <c r="E405">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F405">
         <v>398</v>
@@ -8545,19 +8545,19 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B406">
         <v>9400</v>
       </c>
       <c r="C406">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D406" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E406">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8565,19 +8565,19 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B407">
         <v>9400</v>
       </c>
       <c r="C407">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D407" t="s">
         <v>22</v>
       </c>
       <c r="E407">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F407">
         <v>398</v>
@@ -8585,19 +8585,19 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B408">
         <v>9400</v>
       </c>
       <c r="C408">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D408" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E408">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8605,19 +8605,19 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B409">
         <v>9400</v>
       </c>
       <c r="C409">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D409" t="s">
         <v>22</v>
       </c>
       <c r="E409">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F409">
         <v>398</v>
@@ -8625,19 +8625,19 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B410">
         <v>9400</v>
       </c>
       <c r="C410">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D410" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E410">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8645,19 +8645,19 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B411">
         <v>9400</v>
       </c>
       <c r="C411">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D411" t="s">
         <v>22</v>
       </c>
       <c r="E411">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F411">
         <v>398</v>
@@ -8665,19 +8665,19 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B412">
         <v>9400</v>
       </c>
       <c r="C412">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D412" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E412">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8685,19 +8685,19 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B413">
         <v>9400</v>
       </c>
       <c r="C413">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D413" t="s">
         <v>22</v>
       </c>
       <c r="E413">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F413">
         <v>398</v>
@@ -8711,13 +8711,13 @@
         <v>9400</v>
       </c>
       <c r="C414">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D414" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E414">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -8731,13 +8731,13 @@
         <v>9400</v>
       </c>
       <c r="C415">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D415" t="s">
         <v>22</v>
       </c>
       <c r="E415">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F415">
         <v>398</v>
@@ -8751,13 +8751,13 @@
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D416" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E416">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D417" t="s">
         <v>22</v>
       </c>
       <c r="E417">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F417">
         <v>398</v>
@@ -8785,19 +8785,19 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B418">
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D418" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E418">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -8805,19 +8805,19 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B419">
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D419" t="s">
         <v>22</v>
       </c>
       <c r="E419">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F419">
         <v>398</v>
@@ -8825,19 +8825,19 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B420">
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D420" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E420">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8845,19 +8845,19 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B421">
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D421" t="s">
         <v>22</v>
       </c>
       <c r="E421">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F421">
         <v>398</v>
@@ -8865,19 +8865,19 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B422">
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D422" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E422">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8885,19 +8885,19 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B423">
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
       </c>
       <c r="E423">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F423">
         <v>398</v>
@@ -8905,19 +8905,19 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B424">
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D424" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E424">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -8925,42 +8925,22 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B425">
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D425" t="s">
         <v>22</v>
       </c>
       <c r="E425">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F425">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="1">
-        <v>445</v>
-      </c>
-      <c r="B426">
-        <v>9400</v>
-      </c>
-      <c r="C426">
-        <v>1616</v>
-      </c>
-      <c r="D426" t="s">
-        <v>8</v>
-      </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426">
-        <v>1616</v>
+        <v>2802</v>
       </c>
     </row>
   </sheetData>
